--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940393F9-B2F1-457F-9FC8-C42034F64898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907BF1C-0BB0-41FC-9141-036D9496699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="1" activeTab="1" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -81,20 +81,21 @@
     <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId66"/>
     <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId67"/>
     <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId68"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId69"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId70"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId71"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId72"/>
-    <sheet name="Economics" sheetId="95" r:id="rId73"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId74"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId75"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId76"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId69"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId70"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId71"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId72"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId73"/>
+    <sheet name="Economics" sheetId="95" r:id="rId74"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId75"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId76"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId77"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +103,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -113,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="292">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -986,6 +985,9 @@
   </si>
   <si>
     <t>Table with indication if the treatment technology is for desalination</t>
+  </si>
+  <si>
+    <t>Table of Removal Efficiency [%]</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2303,15 +2305,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.3125" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2323,7 +2325,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -2337,7 +2339,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2349,7 +2351,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17"/>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -2363,7 +2365,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -2377,7 +2379,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -2391,7 +2393,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -2405,7 +2407,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -2419,7 +2421,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2433,7 +2435,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2445,7 +2447,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -2459,7 +2461,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
@@ -2473,7 +2475,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2485,7 +2487,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
         <v>9</v>
@@ -2499,7 +2501,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
         <v>10</v>
@@ -2513,7 +2515,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -2527,7 +2529,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>12</v>
@@ -2541,7 +2543,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2553,7 +2555,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2565,7 +2567,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -2581,7 +2583,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2593,7 +2595,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="17"/>
       <c r="C23" s="22" t="s">
         <v>15</v>
@@ -2609,7 +2611,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="17"/>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -2625,7 +2627,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="17"/>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2641,7 +2643,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="17"/>
       <c r="C26" s="22" t="s">
         <v>21</v>
@@ -2657,7 +2659,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="17"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -2673,7 +2675,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="17"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -2689,7 +2691,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="17"/>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -2705,7 +2707,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="17"/>
       <c r="C30" s="22" t="s">
         <v>29</v>
@@ -2721,7 +2723,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="17"/>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -2740,7 +2742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="17"/>
       <c r="C32" s="22" t="s">
         <v>34</v>
@@ -2756,7 +2758,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="17"/>
       <c r="C33" s="22" t="s">
         <v>36</v>
@@ -2772,7 +2774,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="17"/>
       <c r="C34" s="22" t="s">
         <v>38</v>
@@ -2788,7 +2790,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="17"/>
       <c r="C35" s="22" t="s">
         <v>40</v>
@@ -2804,7 +2806,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="17"/>
       <c r="C36" s="22" t="s">
         <v>42</v>
@@ -2820,7 +2822,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2865,25 +2867,25 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>136</v>
       </c>
@@ -2891,22 +2893,22 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -2927,30 +2929,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>141</v>
       </c>
@@ -2958,12 +2960,12 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
     </row>
   </sheetData>
@@ -2983,28 +2985,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -3027,30 +3029,30 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>146</v>
       </c>
@@ -3058,137 +3060,137 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
@@ -3209,35 +3211,35 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>176</v>
       </c>
@@ -3259,30 +3261,30 @@
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
@@ -3290,16 +3292,16 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3319,30 +3321,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>182</v>
       </c>
@@ -3350,20 +3352,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3383,30 +3385,30 @@
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>187</v>
       </c>
@@ -3414,16 +3416,16 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3443,18 +3445,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -3544,7 +3546,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -3579,7 +3581,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -3614,7 +3616,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -3649,7 +3651,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -3684,7 +3686,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -3721,7 +3723,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -3756,7 +3758,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -3791,7 +3793,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="31"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -3826,7 +3828,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="31"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -3861,7 +3863,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="31"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -3896,7 +3898,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="31"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -3931,7 +3933,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -3966,7 +3968,7 @@
       </c>
       <c r="AC14" s="31"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -4001,7 +4003,7 @@
       </c>
       <c r="AC15" s="31"/>
     </row>
-    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -4055,18 +4057,18 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -4156,7 +4158,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4192,7 +4194,7 @@
       <c r="AC3" s="34"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4228,7 +4230,7 @@
       <c r="AC4" s="34"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4276,63 +4278,63 @@
   </sheetPr>
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="66" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.3125" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="40"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="42"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="42"/>
     </row>
   </sheetData>
@@ -4352,18 +4354,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4385,7 +4387,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4393,7 +4395,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4418,18 +4420,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -4519,7 +4521,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -4554,7 +4556,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -4593,7 +4595,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -4630,7 +4632,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -4667,7 +4669,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -4704,7 +4706,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -4742,7 +4744,7 @@
       <c r="AC8" s="31"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -4782,7 +4784,7 @@
       <c r="AC9" s="31"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -4820,7 +4822,7 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -4860,7 +4862,7 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -4896,7 +4898,7 @@
       <c r="AC12" s="31"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -4934,7 +4936,7 @@
       <c r="AC13" s="31"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -4970,7 +4972,7 @@
       <c r="AC14" s="31"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -5008,7 +5010,7 @@
       <c r="AC15" s="31"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -5048,7 +5050,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -5086,7 +5088,7 @@
       </c>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -5124,7 +5126,7 @@
       <c r="AC18" s="31"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -5160,7 +5162,7 @@
       <c r="AC19" s="31"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5196,7 +5198,7 @@
       <c r="AC20" s="31"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -5234,7 +5236,7 @@
       <c r="AC21" s="31"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -5272,7 +5274,7 @@
       </c>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -5310,7 +5312,7 @@
       <c r="AC23" s="31"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -5350,7 +5352,7 @@
       <c r="AC24" s="31"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -5388,7 +5390,7 @@
       <c r="AC25" s="31"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -5426,7 +5428,7 @@
       <c r="AC26" s="31"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -5464,7 +5466,7 @@
       <c r="AC27" s="31"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -5502,7 +5504,7 @@
       <c r="AC28" s="31"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -5538,7 +5540,7 @@
       <c r="AC29" s="31"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -5578,7 +5580,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5628,18 +5630,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -5661,7 +5663,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -5669,7 +5671,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -5677,7 +5679,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -5685,7 +5687,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -5693,7 +5695,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -5701,7 +5703,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -5709,7 +5711,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -5717,7 +5719,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -5725,7 +5727,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -5733,7 +5735,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -5741,7 +5743,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -5749,7 +5751,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -5757,7 +5759,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -5765,7 +5767,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -5773,7 +5775,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -5781,7 +5783,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -5789,7 +5791,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5797,7 +5799,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -5805,7 +5807,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -5813,7 +5815,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -5821,7 +5823,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -5829,7 +5831,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -5837,7 +5839,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -5845,7 +5847,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -5853,7 +5855,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -5861,7 +5863,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -5869,7 +5871,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -5877,7 +5879,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5900,18 +5902,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -5943,7 +5945,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -5953,7 +5955,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -5963,7 +5965,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -5975,7 +5977,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -5985,7 +5987,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -5995,7 +5997,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -6005,7 +6007,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -6015,7 +6017,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -6025,7 +6027,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -6035,7 +6037,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -6045,7 +6047,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -6055,7 +6057,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -6067,7 +6069,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -6077,7 +6079,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -6087,7 +6089,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -6097,7 +6099,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -6109,7 +6111,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -6121,7 +6123,7 @@
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -6131,7 +6133,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -6141,7 +6143,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -6151,7 +6153,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -6163,7 +6165,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -6173,7 +6175,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -6183,7 +6185,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -6193,7 +6195,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -6215,7 +6217,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -6225,7 +6227,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6251,18 +6253,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -6279,7 +6281,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -6288,7 +6290,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -6297,7 +6299,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -6306,7 +6308,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -6315,7 +6317,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -6324,7 +6326,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -6333,7 +6335,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -6342,7 +6344,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -6351,7 +6353,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -6360,7 +6362,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -6371,7 +6373,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -6380,7 +6382,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -6391,7 +6393,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -6400,7 +6402,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -6409,7 +6411,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -6418,7 +6420,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -6427,7 +6429,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -6436,7 +6438,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -6445,7 +6447,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -6454,7 +6456,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -6465,7 +6467,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -6474,7 +6476,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -6483,7 +6485,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -6503,7 +6505,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -6512,7 +6514,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -6521,7 +6523,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -6530,7 +6532,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -6539,7 +6541,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6564,18 +6566,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -6589,7 +6591,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>156</v>
       </c>
@@ -6614,18 +6616,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -6633,19 +6635,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -6668,18 +6670,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -6730,18 +6732,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6755,7 +6757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6763,7 +6765,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6771,7 +6773,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6779,7 +6781,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -6805,12 +6807,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -6818,7 +6820,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6842,7 +6844,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6850,7 +6852,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6860,7 +6862,7 @@
       </c>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -6886,33 +6888,33 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="92.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.68359375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.3125" style="1"/>
+    <col min="49" max="49" width="13.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -6932,7 +6934,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
@@ -6962,7 +6964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>56</v>
       </c>
@@ -6986,7 +6988,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>61</v>
       </c>
@@ -7004,7 +7006,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
@@ -7028,7 +7030,7 @@
       <c r="J6" s="64"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
@@ -7052,7 +7054,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="29" t="s">
         <v>77</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -7221,17 +7223,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -7255,7 +7257,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -7265,7 +7267,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -7291,18 +7293,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -7336,7 +7338,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -7347,7 +7349,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -7358,7 +7360,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -7386,18 +7388,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7419,7 +7421,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7427,7 +7429,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7435,7 +7437,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7443,7 +7445,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7451,7 +7453,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7459,7 +7461,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7467,7 +7469,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7475,7 +7477,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7483,7 +7485,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7491,7 +7493,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7499,7 +7501,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7507,7 +7509,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7515,7 +7517,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7541,18 +7543,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -7602,18 +7604,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -7633,7 +7635,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7673,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7753,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7813,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7833,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7853,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7930,18 +7932,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8038,18 +8040,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8071,7 +8073,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8079,7 +8081,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8104,18 +8106,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8123,7 +8125,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -8144,24 +8146,24 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.33203125" style="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.3125" style="1"/>
+    <col min="54" max="54" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8485,7 +8487,7 @@
       <c r="BB3" s="89"/>
       <c r="BC3" s="89"/>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8649,7 +8651,7 @@
       <c r="BC4" s="89"/>
       <c r="BD4" s="83"/>
     </row>
-    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8797,10 +8799,10 @@
       <c r="BC5" s="88"/>
       <c r="BD5" s="82"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="12"/>
     </row>
   </sheetData>
@@ -8819,22 +8821,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -8995,7 +8997,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -9847,7 +9849,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -10060,7 +10062,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -10485,7 +10487,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -10911,7 +10913,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -11124,7 +11126,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -11550,7 +11552,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -11763,7 +11765,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -11976,14 +11978,14 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="51"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="51"/>
     </row>
   </sheetData>
@@ -12004,90 +12006,90 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.3125" style="1"/>
+    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.3125" style="1"/>
+    <col min="13" max="13" width="11.3125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -12108,23 +12110,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.1015625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.3125" style="1"/>
+    <col min="14" max="15" width="11.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -12624,10 +12626,10 @@
       <c r="AZ5" s="38"/>
       <c r="BA5" s="39"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="51"/>
     </row>
@@ -12649,18 +12651,18 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -12794,7 +12796,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -12928,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -13062,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -13196,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -13330,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -13464,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -13598,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -13732,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -14000,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -14134,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -14268,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -14402,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -14536,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -14670,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -14804,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -14938,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -15206,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -15340,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -15474,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -15608,7 +15610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -15742,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -15876,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -16010,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -16142,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -16276,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -16410,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -16544,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -16678,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -16812,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -16946,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -17080,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -17214,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -17348,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -17616,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -17750,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -17884,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -18018,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -18152,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -18286,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -18420,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -18554,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -18688,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -18820,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -18954,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -19088,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -19222,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="28" t="s">
         <v>129</v>
       </c>
@@ -19356,7 +19358,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="28" t="s">
         <v>130</v>
       </c>
@@ -19490,7 +19492,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -19624,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -19758,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -19892,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -20043,19 +20045,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -20063,7 +20065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -20071,7 +20073,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -20079,7 +20081,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -20087,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -20096,7 +20098,7 @@
       </c>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -20121,19 +20123,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -20141,7 +20143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -20149,7 +20151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -20157,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -20182,19 +20184,19 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -20208,7 +20210,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -20222,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -20236,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -20250,7 +20252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -20281,13 +20283,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -20311,7 +20313,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -20472,7 +20474,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -20685,7 +20687,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20898,7 +20900,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -20919,20 +20921,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -20940,7 +20942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -20948,7 +20950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -20956,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -20981,19 +20983,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -21001,7 +21003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -21009,7 +21011,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -21034,20 +21036,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -21055,175 +21057,175 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="37"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="37"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="37"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="37"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B8" s="37"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="37"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="37"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B12" s="37"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B13" s="37"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="37"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="37"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B16" s="37"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B18" s="37"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="37"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="37"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B21" s="37"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B22" s="37"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="37"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="37"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="37"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="37"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="37"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="37"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B29" s="37"/>
     </row>
-    <row r="30" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B30" s="39"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="104"/>
     </row>
@@ -21242,21 +21244,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -21417,7 +21419,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -21578,7 +21580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -21739,7 +21741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -21900,7 +21902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22062,7 +22064,7 @@
       </c>
       <c r="BD6" s="83"/>
     </row>
-    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -22225,10 +22227,10 @@
       <c r="BB7" s="8"/>
       <c r="BD7" s="82"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="51"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1" t="s">
         <v>287</v>
       </c>
@@ -22248,40 +22250,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.3125" style="1"/>
+    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.3125" style="1"/>
+    <col min="13" max="13" width="11.3125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
@@ -22289,52 +22291,52 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>117</v>
       </c>
@@ -22355,19 +22357,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="11.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -22375,7 +22377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -22383,7 +22385,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -22391,7 +22393,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -22399,7 +22401,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22407,7 +22409,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -22433,20 +22435,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -22457,7 +22459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -22468,7 +22470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -22479,7 +22481,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -22490,7 +22492,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -22501,7 +22503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -22512,7 +22514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -22523,7 +22525,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -22534,7 +22536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -22545,7 +22547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -22556,7 +22558,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -22567,7 +22569,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -22578,7 +22580,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -22606,19 +22608,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -22626,7 +22628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -22634,7 +22636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -22642,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -22667,20 +22669,20 @@
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="6" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -22814,7 +22816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -22948,7 +22950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -23082,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -23216,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -23350,7 +23352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -23484,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -23618,7 +23620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -23752,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -23886,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -24020,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -24154,7 +24156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -24288,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -24422,7 +24424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -24556,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -24690,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -24824,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -24958,7 +24960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -25092,7 +25094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -25226,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -25494,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -25762,7 +25764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -25896,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -26030,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -26164,7 +26166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -26298,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -26432,7 +26434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -26566,7 +26568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -26700,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -26834,7 +26836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -26968,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -27102,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -27236,7 +27238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -27370,7 +27372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -27504,7 +27506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -27638,7 +27640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -27772,7 +27774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -27906,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -28040,7 +28042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -28174,7 +28176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -28308,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -28442,7 +28444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -28710,7 +28712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -28844,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -28978,7 +28980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -29112,7 +29114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -29246,7 +29248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -29380,7 +29382,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -29514,7 +29516,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -29648,7 +29650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -29782,7 +29784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -29916,7 +29918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -30066,19 +30068,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -30086,7 +30088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -30094,7 +30096,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -30117,18 +30119,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -30136,7 +30138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -30144,7 +30146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -30152,7 +30154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -30160,7 +30162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -30168,7 +30170,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -30176,7 +30178,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -30184,7 +30186,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -30192,7 +30194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -30200,7 +30202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -30208,7 +30210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -30216,7 +30218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -30224,7 +30226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -30232,7 +30234,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -30240,7 +30242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="84" t="s">
         <v>102</v>
       </c>
@@ -30248,7 +30250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -30256,7 +30258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -30264,7 +30266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -30272,7 +30274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>129</v>
       </c>
@@ -30280,7 +30282,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="29" t="s">
         <v>130</v>
       </c>
@@ -30304,17 +30306,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>266</v>
       </c>
@@ -30334,7 +30336,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -30354,7 +30356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -30374,7 +30376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -30394,7 +30396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -30414,7 +30416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -30434,7 +30436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -30454,7 +30456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -30474,7 +30476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -30494,7 +30496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -30514,7 +30516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -30534,7 +30536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
@@ -30554,7 +30556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
@@ -30574,7 +30576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -30594,7 +30596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="116" t="s">
         <v>102</v>
       </c>
@@ -30614,7 +30616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -30634,7 +30636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -30654,7 +30656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -30691,19 +30693,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -30714,7 +30716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -30725,7 +30727,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -30736,7 +30738,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -30747,7 +30749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -30758,7 +30760,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -30787,19 +30789,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>271</v>
       </c>
@@ -30807,7 +30809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>186</v>
       </c>
@@ -30815,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>187</v>
       </c>
@@ -30840,19 +30842,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -30863,7 +30865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -30874,7 +30876,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -30885,7 +30887,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -30911,30 +30913,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
@@ -30942,7 +30944,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>121</v>
       </c>
@@ -30965,19 +30967,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>272</v>
       </c>
@@ -30985,7 +30987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>178</v>
       </c>
@@ -30993,7 +30995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -31018,20 +31020,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -31051,7 +31053,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -31071,7 +31073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -31091,7 +31093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -31111,7 +31113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="84" t="s">
         <v>139</v>
       </c>
@@ -31131,7 +31133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -31151,7 +31153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -31171,7 +31173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -31191,7 +31193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="84" t="s">
         <v>139</v>
       </c>
@@ -31211,7 +31213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -31231,7 +31233,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -31251,7 +31253,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -31271,7 +31273,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -31308,21 +31310,21 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="21.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3125" style="1"/>
+    <col min="3" max="3" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>273</v>
       </c>
@@ -31339,7 +31341,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>140</v>
       </c>
@@ -31356,7 +31358,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>141</v>
       </c>
@@ -31373,7 +31375,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -31390,10 +31392,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="88"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="88"/>
     </row>
   </sheetData>
@@ -31413,19 +31415,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -31433,7 +31435,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="29" t="s">
         <v>277</v>
       </c>
@@ -31459,9 +31461,9 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -31470,7 +31472,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -31604,7 +31606,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -31726,7 +31728,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -31848,7 +31850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -31970,7 +31972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -32092,7 +32094,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -32214,7 +32216,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -32336,7 +32338,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -32458,7 +32460,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -32580,7 +32582,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -32702,7 +32704,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -32824,7 +32826,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -32946,7 +32948,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -33068,7 +33070,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -33190,7 +33192,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -33312,7 +33314,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -33433,7 +33435,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -33553,7 +33555,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -33673,7 +33675,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -33787,7 +33789,7 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="31"/>
     </row>
-    <row r="21" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -33901,7 +33903,7 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="31"/>
     </row>
-    <row r="22" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -34015,7 +34017,7 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="31"/>
     </row>
-    <row r="23" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -34129,7 +34131,7 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="31"/>
     </row>
-    <row r="24" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -34243,7 +34245,7 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="31"/>
     </row>
-    <row r="25" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -34357,7 +34359,7 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="31"/>
     </row>
-    <row r="26" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -34471,7 +34473,7 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="31"/>
     </row>
-    <row r="27" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -34585,7 +34587,7 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="31"/>
     </row>
-    <row r="28" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -34699,7 +34701,7 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="31"/>
     </row>
-    <row r="29" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -34813,7 +34815,7 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="31"/>
     </row>
-    <row r="30" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -34927,7 +34929,7 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="31"/>
     </row>
-    <row r="31" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -35041,7 +35043,7 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="31"/>
     </row>
-    <row r="32" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -35155,7 +35157,7 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="31"/>
     </row>
-    <row r="33" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -35269,7 +35271,7 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="31"/>
     </row>
-    <row r="34" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -35383,7 +35385,7 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="31"/>
     </row>
-    <row r="35" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -35497,7 +35499,7 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="31"/>
     </row>
-    <row r="36" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -35611,7 +35613,7 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="31"/>
     </row>
-    <row r="37" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -35725,7 +35727,7 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="31"/>
     </row>
-    <row r="38" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -35839,7 +35841,7 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="31"/>
     </row>
-    <row r="39" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -35955,7 +35957,7 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="31"/>
     </row>
-    <row r="40" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -36069,7 +36071,7 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="31"/>
     </row>
-    <row r="41" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -36183,7 +36185,7 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="31"/>
     </row>
-    <row r="42" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -36299,7 +36301,7 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="31"/>
     </row>
-    <row r="43" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -36413,7 +36415,7 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="31"/>
     </row>
-    <row r="44" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -36527,7 +36529,7 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="31"/>
     </row>
-    <row r="45" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -36639,7 +36641,7 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="31"/>
     </row>
-    <row r="46" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -36753,7 +36755,7 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="31"/>
     </row>
-    <row r="47" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -36863,7 +36865,7 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="31"/>
     </row>
-    <row r="48" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -36913,7 +36915,7 @@
       <c r="AQ48" s="94"/>
       <c r="AR48" s="102"/>
     </row>
-    <row r="49" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -36963,7 +36965,7 @@
       </c>
       <c r="AR49" s="31"/>
     </row>
-    <row r="50" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -37059,7 +37061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -37181,7 +37183,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -37303,7 +37305,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -37415,7 +37417,7 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="31"/>
     </row>
-    <row r="54" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -37465,7 +37467,7 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="31"/>
     </row>
-    <row r="55" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -37517,7 +37519,7 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="31"/>
     </row>
-    <row r="56" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -37585,9 +37587,9 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -37596,7 +37598,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -37613,7 +37615,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>154</v>
       </c>
@@ -37630,7 +37632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>156</v>
       </c>
@@ -37647,7 +37649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>153</v>
       </c>
@@ -37664,7 +37666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="29" t="s">
         <v>155</v>
       </c>
@@ -37698,19 +37700,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>270</v>
       </c>
@@ -37718,7 +37720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -37726,7 +37728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>175</v>
       </c>
@@ -37734,7 +37736,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>176</v>
       </c>
@@ -37759,19 +37761,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>270</v>
       </c>
@@ -37779,7 +37781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -37787,7 +37789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>175</v>
       </c>
@@ -37795,7 +37797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>176</v>
       </c>
@@ -37817,21 +37819,21 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3125" customWidth="1"/>
+    <col min="2" max="2" width="23.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -37842,7 +37844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -37853,7 +37855,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -37864,7 +37866,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -37875,7 +37877,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -37886,7 +37888,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -37897,7 +37899,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -37908,7 +37910,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -37919,7 +37921,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -37930,7 +37932,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -37941,7 +37943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -37952,7 +37954,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -37963,7 +37965,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -37980,56 +37982,164 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBAE5B-BDCC-4DEB-A724-3B0573940C90}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="C2" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="39">
-        <v>1</v>
+      <c r="C11" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -38046,43 +38156,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.3125" style="1"/>
+    <col min="15" max="15" width="12.1015625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5234375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -38095,6 +38205,64 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38105,17 +38273,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -38123,7 +38291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -38131,7 +38299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -38139,7 +38307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -38147,7 +38315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -38160,7 +38328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38171,17 +38339,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -38189,7 +38357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -38197,7 +38365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -38205,7 +38373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -38218,7 +38386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38229,17 +38397,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -38247,7 +38415,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>280</v>
       </c>
@@ -38255,7 +38423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>281</v>
       </c>
@@ -38268,7 +38436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38279,17 +38447,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -38297,7 +38465,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>283</v>
       </c>
@@ -38305,7 +38473,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>284</v>
       </c>
@@ -38318,7 +38486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -38329,24 +38497,24 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" customWidth="1"/>
+    <col min="5" max="5" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" customWidth="1"/>
+    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>285</v>
       </c>
@@ -38354,7 +38522,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -38362,7 +38530,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -38370,7 +38538,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -38378,7 +38546,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -38386,7 +38554,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -38394,7 +38562,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -38402,7 +38570,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -38410,7 +38578,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -38418,7 +38586,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -38426,7 +38594,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -38434,7 +38602,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -38442,7 +38610,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -38450,7 +38618,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -38458,7 +38626,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -38466,7 +38634,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -38474,7 +38642,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -38488,7 +38656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -38499,18 +38667,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>285</v>
       </c>
@@ -38518,7 +38686,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="59" t="s">
         <v>132</v>
       </c>
@@ -38526,7 +38694,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -38534,7 +38702,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -38548,7 +38716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -38559,19 +38727,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="2" max="2" width="12.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -38579,7 +38747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -38587,7 +38755,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -38611,30 +38779,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>130</v>
       </c>
@@ -38660,30 +38828,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.3125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.3125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
@@ -38691,7 +38859,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907BF1C-0BB0-41FC-9141-036D9496699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721232A6-DD46-47CA-A599-FBD24BF2F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -37989,7 +37989,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -38018,7 +38018,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38029,7 +38029,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38040,7 +38040,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38051,7 +38051,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38062,7 +38062,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38073,7 +38073,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38084,7 +38084,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38095,7 +38095,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38106,7 +38106,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="34">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38117,7 +38117,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="34">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38128,7 +38128,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="34">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -38139,7 +38139,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="35">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721232A6-DD46-47CA-A599-FBD24BF2F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E40309-BD57-4E11-AA92-FA1E145F5B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -37989,7 +37989,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -38018,7 +38018,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38029,7 +38029,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38040,7 +38040,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38051,7 +38051,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38062,7 +38062,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38073,7 +38073,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38084,7 +38084,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38095,7 +38095,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38106,7 +38106,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="34">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38117,7 +38117,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="34">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38128,7 +38128,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="34">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -38139,7 +38139,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E40309-BD57-4E11-AA92-FA1E145F5B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DDBD0-DB78-4E46-9CB2-9D9AC27E7140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -987,7 +987,7 @@
     <t>Table with indication if the treatment technology is for desalination</t>
   </si>
   <si>
-    <t>Table of Removal Efficiency [%]</t>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -37989,7 +37989,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721232A6-DD46-47CA-A599-FBD24BF2F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DDBD0-DB78-4E46-9CB2-9D9AC27E7140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -987,7 +987,7 @@
     <t>Table with indication if the treatment technology is for desalination</t>
   </si>
   <si>
-    <t>Table of Removal Efficiency [%]</t>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -37989,7 +37989,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -38018,7 +38018,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38029,7 +38029,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38040,7 +38040,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38051,7 +38051,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38062,7 +38062,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38073,7 +38073,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38084,7 +38084,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38095,7 +38095,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38106,7 +38106,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="34">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38117,7 +38117,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="34">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -38128,7 +38128,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="34">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -38139,7 +38139,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pareto\source_code\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E691B-8AF0-47A4-AE0B-FDF2AB98D6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B946B7-D77B-4DB0-BAE1-6B46278508A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="17" activeTab="43" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="5985" yWindow="3105" windowWidth="28800" windowHeight="15195" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -7431,7 +7431,7 @@
   </sheetPr>
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
@@ -24688,7 +24688,7 @@
   </sheetPr>
   <dimension ref="A1:BF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\pareto\src\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DDBD0-DB78-4E46-9CB2-9D9AC27E7140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA242A3D-E248-4699-A11C-773C42AB2CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="16" activeTab="23" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,8 +103,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2305,15 +2309,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.3125" customWidth="1"/>
-    <col min="10" max="10" width="4.41796875" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2325,7 +2329,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -2339,7 +2343,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2351,7 +2355,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -2365,7 +2369,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -2379,7 +2383,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -2393,7 +2397,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -2407,7 +2411,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -2421,7 +2425,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2435,7 +2439,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2447,7 +2451,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -2461,7 +2465,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
@@ -2475,7 +2479,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2487,7 +2491,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
         <v>9</v>
@@ -2501,7 +2505,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
         <v>10</v>
@@ -2515,7 +2519,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -2529,7 +2533,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>12</v>
@@ -2543,7 +2547,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2555,7 +2559,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2567,7 +2571,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -2583,7 +2587,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2595,7 +2599,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="22" t="s">
         <v>15</v>
@@ -2611,7 +2615,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -2627,7 +2631,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2643,7 +2647,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="22" t="s">
         <v>21</v>
@@ -2659,7 +2663,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -2675,7 +2679,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -2691,7 +2695,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -2707,7 +2711,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="22" t="s">
         <v>29</v>
@@ -2723,7 +2727,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -2742,7 +2746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="22" t="s">
         <v>34</v>
@@ -2758,7 +2762,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="22" t="s">
         <v>36</v>
@@ -2774,7 +2778,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
       <c r="C34" s="22" t="s">
         <v>38</v>
@@ -2790,7 +2794,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="22" t="s">
         <v>40</v>
@@ -2806,7 +2810,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="22" t="s">
         <v>42</v>
@@ -2822,7 +2826,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2867,25 +2871,25 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>136</v>
       </c>
@@ -2893,22 +2897,22 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -2929,30 +2933,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>141</v>
       </c>
@@ -2960,12 +2964,12 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
   </sheetData>
@@ -2985,28 +2989,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -3029,30 +3033,30 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>146</v>
       </c>
@@ -3060,137 +3064,137 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
@@ -3211,35 +3215,35 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>176</v>
       </c>
@@ -3261,30 +3265,30 @@
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
@@ -3292,16 +3296,16 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3321,30 +3325,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>182</v>
       </c>
@@ -3352,20 +3356,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3385,30 +3389,30 @@
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>187</v>
       </c>
@@ -3416,16 +3420,16 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3445,18 +3449,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -3546,7 +3550,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -3581,7 +3585,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -3616,7 +3620,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -3686,7 +3690,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -3723,7 +3727,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -3758,7 +3762,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -3793,7 +3797,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="31"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -3828,7 +3832,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="31"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -3863,7 +3867,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="31"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -3898,7 +3902,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="31"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -3933,7 +3937,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -3968,7 +3972,7 @@
       </c>
       <c r="AC14" s="31"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -4003,7 +4007,7 @@
       </c>
       <c r="AC15" s="31"/>
     </row>
-    <row r="16" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -4057,18 +4061,18 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -4158,7 +4162,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4194,7 +4198,7 @@
       <c r="AC3" s="34"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4230,7 +4234,7 @@
       <c r="AC4" s="34"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4280,61 +4284,61 @@
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.3125" customWidth="1"/>
-    <col min="10" max="10" width="4.41796875" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="40"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="42"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="42"/>
     </row>
   </sheetData>
@@ -4354,18 +4358,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4387,7 +4391,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4395,7 +4399,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4420,18 +4424,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -4521,7 +4525,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -4556,7 +4560,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -4595,7 +4599,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -4632,7 +4636,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -4669,7 +4673,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -4706,7 +4710,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -4744,7 +4748,7 @@
       <c r="AC8" s="31"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -4784,7 +4788,7 @@
       <c r="AC9" s="31"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -4822,7 +4826,7 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -4862,7 +4866,7 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -4898,7 +4902,7 @@
       <c r="AC12" s="31"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -4936,7 +4940,7 @@
       <c r="AC13" s="31"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -4972,7 +4976,7 @@
       <c r="AC14" s="31"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -5010,7 +5014,7 @@
       <c r="AC15" s="31"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -5050,7 +5054,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -5088,7 +5092,7 @@
       </c>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -5126,7 +5130,7 @@
       <c r="AC18" s="31"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="AC19" s="31"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5198,7 +5202,7 @@
       <c r="AC20" s="31"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -5236,7 +5240,7 @@
       <c r="AC21" s="31"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -5274,7 +5278,7 @@
       </c>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -5312,7 +5316,7 @@
       <c r="AC23" s="31"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -5352,7 +5356,7 @@
       <c r="AC24" s="31"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -5390,7 +5394,7 @@
       <c r="AC25" s="31"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -5428,7 +5432,7 @@
       <c r="AC26" s="31"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -5466,7 +5470,7 @@
       <c r="AC27" s="31"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -5504,7 +5508,7 @@
       <c r="AC28" s="31"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -5540,7 +5544,7 @@
       <c r="AC29" s="31"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -5580,7 +5584,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5630,18 +5634,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -5663,7 +5667,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -5671,7 +5675,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -5679,7 +5683,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -5687,7 +5691,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -5695,7 +5699,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -5703,7 +5707,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -5711,7 +5715,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -5719,7 +5723,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -5727,7 +5731,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -5735,7 +5739,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -5743,7 +5747,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -5751,7 +5755,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -5759,7 +5763,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -5767,7 +5771,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -5775,7 +5779,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -5783,7 +5787,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -5791,7 +5795,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5799,7 +5803,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -5807,7 +5811,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -5815,7 +5819,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -5823,7 +5827,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -5831,7 +5835,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -5839,7 +5843,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -5847,7 +5851,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -5855,7 +5859,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -5863,7 +5867,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -5871,7 +5875,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -5879,7 +5883,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5902,18 +5906,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -5945,7 +5949,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -5955,7 +5959,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -5965,7 +5969,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -5977,7 +5981,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -5987,7 +5991,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -5997,7 +6001,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -6007,7 +6011,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -6017,7 +6021,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -6027,7 +6031,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -6037,7 +6041,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -6047,7 +6051,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -6057,7 +6061,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -6069,7 +6073,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -6079,7 +6083,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -6099,7 +6103,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -6111,7 +6115,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -6123,7 +6127,7 @@
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -6133,7 +6137,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -6143,7 +6147,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -6153,7 +6157,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -6165,7 +6169,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -6175,7 +6179,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -6185,7 +6189,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -6195,7 +6199,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -6217,7 +6221,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -6227,7 +6231,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6249,22 +6253,22 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -6290,7 +6294,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -6299,7 +6303,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -6317,7 +6321,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -6326,7 +6330,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -6335,7 +6339,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -6344,7 +6348,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -6353,7 +6357,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -6362,7 +6366,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -6373,7 +6377,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -6382,7 +6386,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -6402,7 +6406,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -6411,7 +6415,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -6420,7 +6424,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -6429,7 +6433,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -6438,7 +6442,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -6447,7 +6451,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -6456,7 +6460,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -6467,7 +6471,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -6476,7 +6480,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -6485,7 +6489,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -6505,7 +6509,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -6514,7 +6518,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -6523,7 +6527,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -6532,7 +6536,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -6541,7 +6545,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6566,18 +6570,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -6591,7 +6595,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>156</v>
       </c>
@@ -6616,18 +6620,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -6635,19 +6639,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -6670,18 +6674,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -6732,18 +6736,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6765,7 +6769,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6773,7 +6777,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6781,7 +6785,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -6807,12 +6811,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -6820,7 +6824,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6844,7 +6848,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6852,7 +6856,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6862,7 +6866,7 @@
       </c>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -6888,33 +6892,33 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="92.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.68359375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.3125" style="1"/>
-    <col min="49" max="49" width="13.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -6934,7 +6938,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
@@ -6964,7 +6968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>56</v>
       </c>
@@ -6988,7 +6992,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>61</v>
       </c>
@@ -7006,7 +7010,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
@@ -7030,7 +7034,7 @@
       <c r="J6" s="64"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
@@ -7054,7 +7058,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>77</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -7223,17 +7227,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -7247,7 +7251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -7257,7 +7261,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -7267,7 +7271,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -7293,18 +7297,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -7327,7 +7331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -7338,7 +7342,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -7349,7 +7353,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -7360,7 +7364,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -7388,18 +7392,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7421,7 +7425,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7429,7 +7433,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7437,7 +7441,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7445,7 +7449,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7453,7 +7457,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7461,7 +7465,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7469,7 +7473,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7477,7 +7481,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7485,7 +7489,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7493,7 +7497,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7501,7 +7505,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7509,7 +7513,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7517,7 +7521,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7543,18 +7547,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -7604,18 +7608,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7695,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7932,18 +7936,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -7963,7 +7967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8040,18 +8044,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8073,7 +8077,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8081,7 +8085,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8106,18 +8110,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -8146,24 +8150,24 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.3125" style="1"/>
-    <col min="54" max="54" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.28515625" style="1"/>
+    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8487,7 +8491,7 @@
       <c r="BB3" s="89"/>
       <c r="BC3" s="89"/>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8651,7 +8655,7 @@
       <c r="BC4" s="89"/>
       <c r="BD4" s="83"/>
     </row>
-    <row r="5" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8799,10 +8803,10 @@
       <c r="BC5" s="88"/>
       <c r="BD5" s="82"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="F10" s="12"/>
     </row>
   </sheetData>
@@ -8821,22 +8825,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.68359375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -9423,7 +9427,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -9636,7 +9640,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -9849,7 +9853,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -10062,7 +10066,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -10913,7 +10917,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -11552,7 +11556,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -11765,7 +11769,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -11978,14 +11982,14 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="51"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="51"/>
     </row>
   </sheetData>
@@ -12006,90 +12010,90 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.3125" style="1"/>
-    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.3125" style="1"/>
-    <col min="13" max="13" width="11.3125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -12108,25 +12112,25 @@
   </sheetPr>
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1015625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.3125" style="1"/>
-    <col min="14" max="15" width="11.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="17.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -12287,7 +12291,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -12464,7 +12468,7 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -12626,10 +12630,10 @@
       <c r="AZ5" s="38"/>
       <c r="BA5" s="39"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="51"/>
     </row>
@@ -12648,21 +12652,21 @@
   <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -12796,7 +12800,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -13064,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -13198,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -13466,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -13600,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -13868,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -14002,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -14136,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -14270,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -14404,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -14806,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -14940,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -15208,13 +15212,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="96">
-        <v>42857</v>
-      </c>
+      <c r="B21" s="96"/>
       <c r="C21" s="9">
         <v>0</v>
       </c>
@@ -15342,16 +15344,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="96">
         <v>0</v>
       </c>
-      <c r="C22" s="9">
-        <v>42857</v>
-      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="9">
         <v>0</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -15486,9 +15486,7 @@
       <c r="C23" s="9">
         <v>0</v>
       </c>
-      <c r="D23" s="9">
-        <v>42857</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9">
         <v>0</v>
       </c>
@@ -15610,16 +15608,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B24" s="96">
         <v>0</v>
       </c>
-      <c r="C24" s="9">
-        <v>42857</v>
-      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="9">
         <v>0</v>
       </c>
@@ -15744,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -15757,9 +15753,7 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
-        <v>42857</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="9">
         <v>0</v>
       </c>
@@ -15878,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -15897,9 +15891,7 @@
       <c r="F26" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="9">
-        <v>42857</v>
-      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="9">
         <v>0</v>
       </c>
@@ -16012,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -16028,15 +16020,11 @@
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
-        <v>42857</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
-        <v>42857</v>
-      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="9">
         <v>0</v>
       </c>
@@ -16144,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -16166,9 +16154,7 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
-        <v>35714</v>
-      </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="9">
         <v>0</v>
       </c>
@@ -16278,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -16412,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -16440,9 +16426,7 @@
       <c r="I30" s="9">
         <v>0</v>
       </c>
-      <c r="J30" s="9">
-        <v>35714</v>
-      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="9">
         <v>0</v>
       </c>
@@ -16546,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -16680,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -16714,9 +16698,7 @@
       <c r="K32" s="9">
         <v>0</v>
       </c>
-      <c r="L32" s="9">
-        <v>35714</v>
-      </c>
+      <c r="L32" s="9"/>
       <c r="M32" s="9">
         <v>0</v>
       </c>
@@ -16814,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -16854,9 +16836,7 @@
       <c r="M33" s="9">
         <v>0</v>
       </c>
-      <c r="N33" s="9">
-        <v>35714</v>
-      </c>
+      <c r="N33" s="9"/>
       <c r="O33" s="9">
         <v>0</v>
       </c>
@@ -16948,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -17082,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -17128,9 +17108,7 @@
       <c r="O35" s="9">
         <v>0</v>
       </c>
-      <c r="P35" s="9">
-        <v>42857</v>
-      </c>
+      <c r="P35" s="9"/>
       <c r="Q35" s="9">
         <v>0</v>
       </c>
@@ -17216,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -17265,9 +17243,7 @@
       <c r="P36" s="9">
         <v>0</v>
       </c>
-      <c r="Q36" s="9">
-        <v>35714</v>
-      </c>
+      <c r="Q36" s="9"/>
       <c r="R36" s="9">
         <v>0</v>
       </c>
@@ -17350,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -17484,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -17539,9 +17515,7 @@
       <c r="R38" s="9">
         <v>0</v>
       </c>
-      <c r="S38" s="9">
-        <v>42857</v>
-      </c>
+      <c r="S38" s="9"/>
       <c r="T38" s="9">
         <v>0</v>
       </c>
@@ -17618,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -17752,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -17813,9 +17787,7 @@
       <c r="T40" s="9">
         <v>0</v>
       </c>
-      <c r="U40" s="9">
-        <v>42857</v>
-      </c>
+      <c r="U40" s="9"/>
       <c r="V40" s="9">
         <v>0</v>
       </c>
@@ -17886,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -17944,15 +17916,11 @@
       <c r="S41" s="9">
         <v>0</v>
       </c>
-      <c r="T41" s="9">
-        <v>42857</v>
-      </c>
+      <c r="T41" s="9"/>
       <c r="U41" s="9">
         <v>0</v>
       </c>
-      <c r="V41" s="9">
-        <v>42857</v>
-      </c>
+      <c r="V41" s="9"/>
       <c r="W41" s="9">
         <v>0</v>
       </c>
@@ -18020,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:44" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -18087,9 +18055,7 @@
       <c r="V42" s="9">
         <v>0</v>
       </c>
-      <c r="W42" s="9">
-        <v>42857</v>
-      </c>
+      <c r="W42" s="9"/>
       <c r="X42" s="9">
         <v>0</v>
       </c>
@@ -18154,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -18224,9 +18190,7 @@
       <c r="W43" s="9">
         <v>0</v>
       </c>
-      <c r="X43" s="9">
-        <v>42857</v>
-      </c>
+      <c r="X43" s="9"/>
       <c r="Y43" s="9">
         <v>0</v>
       </c>
@@ -18288,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -18361,9 +18325,7 @@
       <c r="X44" s="9">
         <v>0</v>
       </c>
-      <c r="Y44" s="9">
-        <v>42857</v>
-      </c>
+      <c r="Y44" s="9"/>
       <c r="Z44" s="9">
         <v>0</v>
       </c>
@@ -18422,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -18498,9 +18460,7 @@
       <c r="Y45" s="9">
         <v>0</v>
       </c>
-      <c r="Z45" s="9">
-        <v>42857</v>
-      </c>
+      <c r="Z45" s="9"/>
       <c r="AA45" s="9">
         <v>0</v>
       </c>
@@ -18556,7 +18516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -18635,9 +18595,7 @@
       <c r="Z46" s="9">
         <v>0</v>
       </c>
-      <c r="AA46" s="9">
-        <v>42857</v>
-      </c>
+      <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <v>0</v>
       </c>
@@ -18690,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -18731,12 +18689,8 @@
         <v>0</v>
       </c>
       <c r="N47" s="99"/>
-      <c r="O47" s="99">
-        <v>35714</v>
-      </c>
-      <c r="P47" s="99">
-        <v>42857</v>
-      </c>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
       <c r="Q47" s="99">
         <v>0</v>
       </c>
@@ -18749,9 +18703,7 @@
       <c r="T47" s="99">
         <v>0</v>
       </c>
-      <c r="U47" s="99">
-        <v>42857</v>
-      </c>
+      <c r="U47" s="99"/>
       <c r="V47" s="99">
         <v>0</v>
       </c>
@@ -18822,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -18956,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -19090,7 +19042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -19224,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>129</v>
       </c>
@@ -19358,7 +19310,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>130</v>
       </c>
@@ -19492,7 +19444,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -19626,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -19760,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -19894,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -20045,19 +19997,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -20065,7 +20017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -20073,7 +20025,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -20081,7 +20033,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -20089,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -20098,7 +20050,7 @@
       </c>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -20123,19 +20075,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -20143,7 +20095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -20151,7 +20103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -20159,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -20184,19 +20136,19 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -20210,7 +20162,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -20224,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -20238,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -20252,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -20283,13 +20235,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -20313,7 +20265,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -20474,7 +20426,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -20687,7 +20639,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20900,7 +20852,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -20921,20 +20873,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -20942,7 +20894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -20950,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -20958,7 +20910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -20983,19 +20935,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -21003,7 +20955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -21011,7 +20963,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -21036,20 +20988,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -21057,175 +21009,175 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="37"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="37"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="37"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="37"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B8" s="37"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="37"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="37"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B12" s="37"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B13" s="37"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="37"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="37"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B16" s="37"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B18" s="37"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="37"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="37"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B21" s="37"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B22" s="37"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="37"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="37"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="37"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="37"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="37"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="37"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B29" s="37"/>
     </row>
-    <row r="30" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B30" s="39"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="104"/>
     </row>
@@ -21244,21 +21196,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -21419,7 +21371,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -21580,7 +21532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -21741,7 +21693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -21902,7 +21854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22064,7 +22016,7 @@
       </c>
       <c r="BD6" s="83"/>
     </row>
-    <row r="7" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -22227,10 +22179,10 @@
       <c r="BB7" s="8"/>
       <c r="BD7" s="82"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B11" s="51"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>287</v>
       </c>
@@ -22250,40 +22202,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.3125" style="1"/>
-    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.3125" style="1"/>
-    <col min="13" max="13" width="11.3125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
@@ -22291,52 +22243,52 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>117</v>
       </c>
@@ -22357,19 +22309,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -22377,7 +22329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -22385,7 +22337,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -22393,7 +22345,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -22401,7 +22353,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22409,7 +22361,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -22435,20 +22387,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -22459,7 +22411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -22470,7 +22422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -22481,7 +22433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -22492,7 +22444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -22503,7 +22455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -22514,7 +22466,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -22525,7 +22477,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -22536,7 +22488,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -22547,7 +22499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -22558,7 +22510,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -22569,7 +22521,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -22580,7 +22532,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -22608,19 +22560,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -22628,7 +22580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -22636,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -22644,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -22669,20 +22621,20 @@
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="6" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -22816,7 +22768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -22950,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -23084,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -23218,7 +23170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -23352,7 +23304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -23486,7 +23438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -23620,7 +23572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -23754,7 +23706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -23888,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -24022,7 +23974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -24156,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -24290,7 +24242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -24424,7 +24376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -24558,7 +24510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -24692,7 +24644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -24826,7 +24778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -24960,7 +24912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -25094,7 +25046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -25228,7 +25180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -25362,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -25496,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -25630,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -25764,7 +25716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -25898,7 +25850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -26032,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -26166,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -26300,7 +26252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -26434,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -26568,7 +26520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -26702,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -26836,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -26970,7 +26922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -27104,7 +27056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -27238,7 +27190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -27372,7 +27324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -27506,7 +27458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -27640,7 +27592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -27774,7 +27726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -27908,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -28042,7 +27994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -28176,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -28310,7 +28262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -28444,7 +28396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -28578,7 +28530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -28712,7 +28664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -28846,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -28980,7 +28932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -29114,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -29248,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -29382,7 +29334,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -29516,7 +29468,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -29650,7 +29602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -29784,7 +29736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -29918,7 +29870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -30068,19 +30020,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -30088,7 +30040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -30096,7 +30048,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -30119,18 +30071,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -30138,7 +30090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -30146,7 +30098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -30154,7 +30106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -30162,7 +30114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -30170,7 +30122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -30178,7 +30130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -30186,7 +30138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -30194,7 +30146,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -30202,7 +30154,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -30210,7 +30162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -30218,7 +30170,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -30226,7 +30178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -30234,7 +30186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -30242,7 +30194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
         <v>102</v>
       </c>
@@ -30250,7 +30202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -30258,7 +30210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -30266,7 +30218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -30274,7 +30226,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>129</v>
       </c>
@@ -30282,7 +30234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>130</v>
       </c>
@@ -30306,17 +30258,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>266</v>
       </c>
@@ -30336,7 +30288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -30356,7 +30308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -30376,7 +30328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -30396,7 +30348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -30416,7 +30368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -30436,7 +30388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -30456,7 +30408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -30476,7 +30428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -30496,7 +30448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -30516,7 +30468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -30536,7 +30488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
@@ -30556,7 +30508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
@@ -30576,7 +30528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -30596,7 +30548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>102</v>
       </c>
@@ -30616,7 +30568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -30636,7 +30588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -30656,7 +30608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -30693,19 +30645,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -30716,7 +30668,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -30727,7 +30679,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -30738,7 +30690,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -30749,7 +30701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -30760,7 +30712,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -30789,19 +30741,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>271</v>
       </c>
@@ -30809,7 +30761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>186</v>
       </c>
@@ -30817,7 +30769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>187</v>
       </c>
@@ -30842,19 +30794,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -30865,7 +30817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -30876,7 +30828,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -30887,7 +30839,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -30913,30 +30865,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
@@ -30944,7 +30896,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>121</v>
       </c>
@@ -30967,19 +30919,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.3125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>272</v>
       </c>
@@ -30987,7 +30939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>178</v>
       </c>
@@ -30995,7 +30947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -31020,20 +30972,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -31053,7 +31005,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -31073,7 +31025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -31093,7 +31045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -31113,7 +31065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
         <v>139</v>
       </c>
@@ -31133,7 +31085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -31153,7 +31105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -31173,7 +31125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -31193,7 +31145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>139</v>
       </c>
@@ -31213,7 +31165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -31233,7 +31185,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -31253,7 +31205,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -31273,7 +31225,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -31310,21 +31262,21 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3125" style="1"/>
-    <col min="3" max="3" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>273</v>
       </c>
@@ -31341,7 +31293,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>140</v>
       </c>
@@ -31358,7 +31310,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>141</v>
       </c>
@@ -31375,7 +31327,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -31392,10 +31344,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="88"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="88"/>
     </row>
   </sheetData>
@@ -31415,19 +31367,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -31435,7 +31387,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>277</v>
       </c>
@@ -31461,9 +31413,9 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -31472,7 +31424,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -31606,7 +31558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -31728,7 +31680,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -31850,7 +31802,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -31972,7 +31924,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -32094,7 +32046,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -32216,7 +32168,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -32338,7 +32290,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -32460,7 +32412,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -32582,7 +32534,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -32704,7 +32656,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -32826,7 +32778,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -32948,7 +32900,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -33070,7 +33022,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -33192,7 +33144,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -33314,7 +33266,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -33435,7 +33387,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -33555,7 +33507,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -33675,7 +33627,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -33789,7 +33741,7 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="31"/>
     </row>
-    <row r="21" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -33903,7 +33855,7 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="31"/>
     </row>
-    <row r="22" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -34017,7 +33969,7 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="31"/>
     </row>
-    <row r="23" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -34131,7 +34083,7 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="31"/>
     </row>
-    <row r="24" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -34245,7 +34197,7 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="31"/>
     </row>
-    <row r="25" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -34359,7 +34311,7 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="31"/>
     </row>
-    <row r="26" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -34473,7 +34425,7 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="31"/>
     </row>
-    <row r="27" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -34587,7 +34539,7 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="31"/>
     </row>
-    <row r="28" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -34701,7 +34653,7 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="31"/>
     </row>
-    <row r="29" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -34815,7 +34767,7 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="31"/>
     </row>
-    <row r="30" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -34929,7 +34881,7 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="31"/>
     </row>
-    <row r="31" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -35043,7 +34995,7 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="31"/>
     </row>
-    <row r="32" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -35157,7 +35109,7 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="31"/>
     </row>
-    <row r="33" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -35271,7 +35223,7 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="31"/>
     </row>
-    <row r="34" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -35385,7 +35337,7 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="31"/>
     </row>
-    <row r="35" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -35499,7 +35451,7 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="31"/>
     </row>
-    <row r="36" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -35613,7 +35565,7 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="31"/>
     </row>
-    <row r="37" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -35727,7 +35679,7 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="31"/>
     </row>
-    <row r="38" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -35841,7 +35793,7 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="31"/>
     </row>
-    <row r="39" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -35957,7 +35909,7 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="31"/>
     </row>
-    <row r="40" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -36071,7 +36023,7 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="31"/>
     </row>
-    <row r="41" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -36185,7 +36137,7 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="31"/>
     </row>
-    <row r="42" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -36301,7 +36253,7 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="31"/>
     </row>
-    <row r="43" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -36415,7 +36367,7 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="31"/>
     </row>
-    <row r="44" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -36529,7 +36481,7 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="31"/>
     </row>
-    <row r="45" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -36641,7 +36593,7 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="31"/>
     </row>
-    <row r="46" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -36755,7 +36707,7 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="31"/>
     </row>
-    <row r="47" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -36865,7 +36817,7 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="31"/>
     </row>
-    <row r="48" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -36915,7 +36867,7 @@
       <c r="AQ48" s="94"/>
       <c r="AR48" s="102"/>
     </row>
-    <row r="49" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -36965,7 +36917,7 @@
       </c>
       <c r="AR49" s="31"/>
     </row>
-    <row r="50" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -37061,7 +37013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -37183,7 +37135,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -37305,7 +37257,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -37417,7 +37369,7 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="31"/>
     </row>
-    <row r="54" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -37467,7 +37419,7 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="31"/>
     </row>
-    <row r="55" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -37519,7 +37471,7 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="31"/>
     </row>
-    <row r="56" spans="1:44" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -37587,9 +37539,9 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -37598,7 +37550,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -37615,7 +37567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>154</v>
       </c>
@@ -37632,7 +37584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>156</v>
       </c>
@@ -37649,7 +37601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>153</v>
       </c>
@@ -37666,7 +37618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>155</v>
       </c>
@@ -37700,19 +37652,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>270</v>
       </c>
@@ -37720,7 +37672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -37728,7 +37680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>175</v>
       </c>
@@ -37736,7 +37688,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>176</v>
       </c>
@@ -37761,19 +37713,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.3125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>270</v>
       </c>
@@ -37781,7 +37733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -37789,7 +37741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>175</v>
       </c>
@@ -37797,7 +37749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>176</v>
       </c>
@@ -37822,18 +37774,18 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3125" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -37844,7 +37796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -37855,7 +37807,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -37866,7 +37818,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -37877,7 +37829,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -37888,7 +37840,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -37899,7 +37851,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -37910,7 +37862,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -37921,7 +37873,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -37932,7 +37884,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -37943,7 +37895,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -37954,7 +37906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -37965,7 +37917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -37988,18 +37940,18 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -38010,7 +37962,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -38021,7 +37973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -38032,7 +37984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -38043,7 +37995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -38054,7 +38006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -38065,7 +38017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -38076,7 +38028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -38087,7 +38039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -38098,7 +38050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -38109,7 +38061,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -38120,7 +38072,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -38131,7 +38083,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -38156,43 +38108,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.3125" style="1"/>
-    <col min="15" max="15" width="12.1015625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5234375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -38215,17 +38167,17 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.41796875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>269</v>
       </c>
@@ -38233,7 +38185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="119" t="s">
         <v>140</v>
       </c>
@@ -38241,7 +38193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
         <v>141</v>
       </c>
@@ -38249,7 +38201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -38273,17 +38225,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -38291,7 +38243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -38299,7 +38251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -38307,7 +38259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -38315,7 +38267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -38339,17 +38291,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -38357,7 +38309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -38365,7 +38317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -38373,7 +38325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -38397,17 +38349,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -38415,7 +38367,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>280</v>
       </c>
@@ -38423,7 +38375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>281</v>
       </c>
@@ -38447,17 +38399,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -38465,7 +38417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>283</v>
       </c>
@@ -38473,7 +38425,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>284</v>
       </c>
@@ -38497,24 +38449,24 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" customWidth="1"/>
-    <col min="5" max="5" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1015625" customWidth="1"/>
-    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>285</v>
       </c>
@@ -38522,7 +38474,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -38530,7 +38482,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -38538,7 +38490,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -38546,7 +38498,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -38554,7 +38506,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -38562,7 +38514,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -38570,7 +38522,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -38578,7 +38530,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -38586,7 +38538,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -38594,7 +38546,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -38602,7 +38554,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -38610,7 +38562,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -38618,7 +38570,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -38626,7 +38578,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -38634,7 +38586,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -38642,7 +38594,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -38667,18 +38619,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>285</v>
       </c>
@@ -38686,7 +38638,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>132</v>
       </c>
@@ -38694,7 +38646,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -38702,7 +38654,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -38727,19 +38679,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
-    <col min="2" max="2" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -38747,7 +38699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -38755,7 +38707,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -38779,30 +38731,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>130</v>
       </c>
@@ -38828,30 +38780,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.3125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.3125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
@@ -38859,7 +38811,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\pareto\src\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA242A3D-E248-4699-A11C-773C42AB2CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F87310B-06C7-4AE3-A88B-3C4C302B488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="16" activeTab="23" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="74" activeTab="78" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -90,6 +90,9 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId75"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId76"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId77"/>
+    <sheet name="AirEmissionCoefficients" sheetId="115" r:id="rId78"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="116" r:id="rId79"/>
+    <sheet name="Sheet5" sheetId="119" r:id="rId80"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
@@ -116,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="303">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -993,6 +996,39 @@
   <si>
     <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Trucking (g/hour)</t>
+  </si>
+  <si>
+    <t>Pipeline Operations (g/(bbl-mile))</t>
+  </si>
+  <si>
+    <t>Pipeline Installation (g/mile)</t>
+  </si>
+  <si>
+    <t>Disposal (g/bbl)</t>
+  </si>
+  <si>
+    <t>Storage (g/bbl-week)</t>
+  </si>
 </sst>
 </file>
 
@@ -1097,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1580,6 +1616,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1587,7 +1636,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1878,6 +1927,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2309,15 +2383,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2329,7 +2403,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -2343,7 +2417,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2355,7 +2429,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -2369,7 +2443,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -2383,7 +2457,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -2397,7 +2471,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -2411,7 +2485,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -2425,7 +2499,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2439,7 +2513,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2451,7 +2525,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -2465,7 +2539,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
@@ -2479,7 +2553,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2491,7 +2565,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
         <v>9</v>
@@ -2505,7 +2579,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
         <v>10</v>
@@ -2519,7 +2593,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -2533,7 +2607,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>12</v>
@@ -2547,7 +2621,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2559,7 +2633,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2571,7 +2645,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -2587,7 +2661,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2599,7 +2673,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="22" t="s">
         <v>15</v>
@@ -2615,7 +2689,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -2631,7 +2705,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2647,7 +2721,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="22" t="s">
         <v>21</v>
@@ -2663,7 +2737,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -2679,7 +2753,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -2695,7 +2769,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -2711,7 +2785,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="22" t="s">
         <v>29</v>
@@ -2727,7 +2801,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -2746,7 +2820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="22" t="s">
         <v>34</v>
@@ -2762,7 +2836,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="22" t="s">
         <v>36</v>
@@ -2778,7 +2852,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="22" t="s">
         <v>38</v>
@@ -2794,7 +2868,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="22" t="s">
         <v>40</v>
@@ -2810,7 +2884,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="22" t="s">
         <v>42</v>
@@ -2826,7 +2900,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2871,25 +2945,25 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>136</v>
       </c>
@@ -2897,22 +2971,22 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -2930,33 +3004,33 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>141</v>
       </c>
@@ -2964,12 +3038,12 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
     </row>
   </sheetData>
@@ -2989,28 +3063,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -3033,30 +3107,30 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>146</v>
       </c>
@@ -3064,137 +3138,137 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
@@ -3215,35 +3289,35 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>176</v>
       </c>
@@ -3265,30 +3339,30 @@
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
@@ -3296,16 +3370,16 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3325,30 +3399,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>182</v>
       </c>
@@ -3356,20 +3430,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3389,30 +3463,30 @@
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>187</v>
       </c>
@@ -3420,16 +3494,16 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3449,18 +3523,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -3550,7 +3624,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -3585,7 +3659,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -3620,7 +3694,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -3655,7 +3729,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -3690,7 +3764,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -3727,7 +3801,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -3762,7 +3836,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -3797,7 +3871,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="31"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -3832,7 +3906,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="31"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -3867,7 +3941,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="31"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -3902,7 +3976,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="31"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -3937,7 +4011,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -3972,7 +4046,7 @@
       </c>
       <c r="AC14" s="31"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -4007,7 +4081,7 @@
       </c>
       <c r="AC15" s="31"/>
     </row>
-    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -4061,18 +4135,18 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -4162,7 +4236,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4198,7 +4272,7 @@
       <c r="AC3" s="34"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4234,7 +4308,7 @@
       <c r="AC4" s="34"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4284,61 +4358,61 @@
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="40"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="42"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="42"/>
     </row>
   </sheetData>
@@ -4358,18 +4432,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -4383,7 +4457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4391,7 +4465,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4399,7 +4473,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4424,18 +4498,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -4525,7 +4599,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -4560,7 +4634,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -4599,7 +4673,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -4636,7 +4710,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -4673,7 +4747,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -4710,7 +4784,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -4748,7 +4822,7 @@
       <c r="AC8" s="31"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -4788,7 +4862,7 @@
       <c r="AC9" s="31"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -4826,7 +4900,7 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -4866,7 +4940,7 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -4902,7 +4976,7 @@
       <c r="AC12" s="31"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -4940,7 +5014,7 @@
       <c r="AC13" s="31"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -4976,7 +5050,7 @@
       <c r="AC14" s="31"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -5014,7 +5088,7 @@
       <c r="AC15" s="31"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -5054,7 +5128,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -5092,7 +5166,7 @@
       </c>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -5130,7 +5204,7 @@
       <c r="AC18" s="31"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -5166,7 +5240,7 @@
       <c r="AC19" s="31"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5202,7 +5276,7 @@
       <c r="AC20" s="31"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -5240,7 +5314,7 @@
       <c r="AC21" s="31"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -5278,7 +5352,7 @@
       </c>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -5316,7 +5390,7 @@
       <c r="AC23" s="31"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -5356,7 +5430,7 @@
       <c r="AC24" s="31"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -5394,7 +5468,7 @@
       <c r="AC25" s="31"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -5432,7 +5506,7 @@
       <c r="AC26" s="31"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -5470,7 +5544,7 @@
       <c r="AC27" s="31"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -5508,7 +5582,7 @@
       <c r="AC28" s="31"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -5544,7 +5618,7 @@
       <c r="AC29" s="31"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -5584,7 +5658,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5634,18 +5708,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -5659,7 +5733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -5667,7 +5741,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -5675,7 +5749,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -5683,7 +5757,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -5691,7 +5765,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -5699,7 +5773,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -5707,7 +5781,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -5715,7 +5789,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -5723,7 +5797,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -5731,7 +5805,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -5739,7 +5813,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -5747,7 +5821,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -5755,7 +5829,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -5763,7 +5837,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -5771,7 +5845,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -5779,7 +5853,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -5787,7 +5861,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -5795,7 +5869,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -5803,7 +5877,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -5811,7 +5885,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -5819,7 +5893,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -5827,7 +5901,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -5835,7 +5909,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -5843,7 +5917,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -5851,7 +5925,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -5859,7 +5933,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -5867,7 +5941,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -5875,7 +5949,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -5883,7 +5957,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5906,18 +5980,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -5937,7 +6011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -5949,7 +6023,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -5959,7 +6033,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -5969,7 +6043,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -5981,7 +6055,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -5991,7 +6065,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -6001,7 +6075,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -6011,7 +6085,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -6021,7 +6095,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -6031,7 +6105,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -6041,7 +6115,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -6051,7 +6125,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -6061,7 +6135,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -6073,7 +6147,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -6083,7 +6157,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -6093,7 +6167,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -6103,7 +6177,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -6115,7 +6189,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -6127,7 +6201,7 @@
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -6137,7 +6211,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -6147,7 +6221,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -6157,7 +6231,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -6169,7 +6243,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -6179,7 +6253,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -6189,7 +6263,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -6199,7 +6273,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -6211,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -6221,7 +6295,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -6231,7 +6305,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6253,22 +6327,22 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -6285,7 +6359,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
@@ -6294,7 +6368,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
@@ -6303,7 +6377,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
@@ -6312,7 +6386,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
@@ -6321,7 +6395,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
@@ -6330,7 +6404,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
@@ -6339,7 +6413,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -6348,7 +6422,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
@@ -6357,7 +6431,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
@@ -6366,7 +6440,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
@@ -6377,7 +6451,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -6386,7 +6460,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
@@ -6397,7 +6471,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
@@ -6406,7 +6480,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
@@ -6415,7 +6489,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
@@ -6424,7 +6498,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
@@ -6433,7 +6507,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
@@ -6442,7 +6516,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
@@ -6451,7 +6525,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
@@ -6460,7 +6534,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
@@ -6471,7 +6545,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
@@ -6480,7 +6554,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
@@ -6489,7 +6563,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -6500,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
@@ -6509,7 +6583,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
@@ -6518,7 +6592,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
@@ -6527,7 +6601,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
@@ -6536,7 +6610,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
@@ -6545,7 +6619,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6570,18 +6644,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -6595,7 +6669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>156</v>
       </c>
@@ -6620,18 +6694,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -6639,19 +6713,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -6674,18 +6748,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -6696,7 +6770,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -6707,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -6736,18 +6810,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6761,7 +6835,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6769,7 +6843,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6777,7 +6851,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6785,7 +6859,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -6811,12 +6885,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -6824,7 +6898,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6838,7 +6912,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6848,7 +6922,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6856,7 +6930,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6866,7 +6940,7 @@
       </c>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -6892,33 +6966,33 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -6938,7 +7012,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
@@ -6968,7 +7042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>56</v>
       </c>
@@ -6992,7 +7066,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>61</v>
       </c>
@@ -7010,7 +7084,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
@@ -7034,7 +7108,7 @@
       <c r="J6" s="64"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
@@ -7058,7 +7132,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
@@ -7097,7 +7171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>77</v>
       </c>
@@ -7148,7 +7222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7171,7 +7245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -7179,7 +7253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -7227,17 +7301,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -7251,7 +7325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -7261,7 +7335,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -7271,7 +7345,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -7297,18 +7371,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -7331,7 +7405,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -7342,7 +7416,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -7353,7 +7427,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -7364,7 +7438,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -7392,18 +7466,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -7417,7 +7491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7425,7 +7499,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7433,7 +7507,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7441,7 +7515,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7449,7 +7523,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7457,7 +7531,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7465,7 +7539,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7473,7 +7547,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7481,7 +7555,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7489,7 +7563,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7497,7 +7571,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7505,7 +7579,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7513,7 +7587,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7521,7 +7595,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7547,18 +7621,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -7569,7 +7643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -7580,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -7608,18 +7682,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -7639,7 +7713,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7659,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7679,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7699,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7719,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7739,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7759,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7779,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7799,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7819,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7839,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7859,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7879,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7899,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7936,18 +8010,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -7967,7 +8041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -7987,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8007,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8044,18 +8118,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8069,7 +8143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8077,7 +8151,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8085,7 +8159,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8110,18 +8184,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8129,7 +8203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -8150,24 +8224,24 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.28515625" style="1"/>
-    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.33203125" style="1"/>
+    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -8328,7 +8402,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8491,7 +8565,7 @@
       <c r="BB3" s="89"/>
       <c r="BC3" s="89"/>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8655,7 +8729,7 @@
       <c r="BC4" s="89"/>
       <c r="BD4" s="83"/>
     </row>
-    <row r="5" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8803,10 +8877,10 @@
       <c r="BC5" s="88"/>
       <c r="BD5" s="82"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="F10" s="12"/>
     </row>
   </sheetData>
@@ -8825,22 +8899,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -9001,7 +9075,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -9214,7 +9288,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -9427,7 +9501,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -9640,7 +9714,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -9853,7 +9927,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -10066,7 +10140,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -10278,7 +10352,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -10491,7 +10565,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -10704,7 +10778,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -10917,7 +10991,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -11130,7 +11204,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -11343,7 +11417,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -11556,7 +11630,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -11769,7 +11843,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -11982,14 +12056,14 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="51"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="51"/>
     </row>
   </sheetData>
@@ -12010,90 +12084,90 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -12114,23 +12188,23 @@
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -12291,7 +12365,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -12468,7 +12542,7 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -12573,7 +12647,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -12630,10 +12704,10 @@
       <c r="AZ5" s="38"/>
       <c r="BA5" s="39"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="51"/>
     </row>
@@ -12655,18 +12729,18 @@
       <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -12800,7 +12874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -12934,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -13068,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -13202,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -13336,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -13470,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -13604,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -13738,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -13872,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -14006,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -14140,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -14274,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -14408,7 +14482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -14542,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -14676,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -14810,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -14944,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -15078,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -15212,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -15344,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -15476,7 +15550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -15608,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -15740,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -15872,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -16004,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -16132,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -16264,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -16398,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -16530,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -16664,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -16796,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -16928,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -17062,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -17194,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -17326,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -17460,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -17592,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -17726,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -17858,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -17988,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -18120,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -18252,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -18384,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -18516,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -18648,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -18774,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -18908,7 +18982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -19042,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -19176,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>129</v>
       </c>
@@ -19310,7 +19384,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>130</v>
       </c>
@@ -19444,7 +19518,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -19578,7 +19652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -19712,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -19846,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -19997,19 +20071,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -20017,7 +20091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -20025,7 +20099,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -20033,7 +20107,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -20041,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -20050,7 +20124,7 @@
       </c>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -20075,19 +20149,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -20095,7 +20169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -20103,7 +20177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -20111,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -20136,19 +20210,19 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -20162,7 +20236,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -20176,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -20190,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -20204,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -20235,13 +20309,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -20265,7 +20339,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -20426,7 +20500,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -20639,7 +20713,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20852,7 +20926,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -20873,20 +20947,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -20894,7 +20968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -20902,7 +20976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -20910,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -20935,19 +21009,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -20955,7 +21029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -20963,7 +21037,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -20988,20 +21062,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -21009,175 +21083,175 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="37"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="37"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="37"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="37"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B8" s="37"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="37"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="37"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B12" s="37"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B13" s="37"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="37"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="37"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B16" s="37"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B18" s="37"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="37"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="37"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B21" s="37"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B22" s="37"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="37"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="37"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="37"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="37"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="37"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="37"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B29" s="37"/>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B30" s="39"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="104"/>
     </row>
@@ -21196,21 +21270,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -21371,7 +21445,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -21532,7 +21606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -21693,7 +21767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -21854,7 +21928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22016,7 +22090,7 @@
       </c>
       <c r="BD6" s="83"/>
     </row>
-    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -22179,10 +22253,10 @@
       <c r="BB7" s="8"/>
       <c r="BD7" s="82"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B11" s="51"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>287</v>
       </c>
@@ -22202,40 +22276,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
@@ -22243,52 +22317,52 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>117</v>
       </c>
@@ -22309,19 +22383,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -22329,7 +22403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -22337,7 +22411,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -22345,7 +22419,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -22353,7 +22427,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22361,7 +22435,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -22387,20 +22461,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -22411,7 +22485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -22422,7 +22496,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -22433,7 +22507,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -22444,7 +22518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -22455,7 +22529,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -22466,7 +22540,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -22477,7 +22551,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -22488,7 +22562,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -22499,7 +22573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -22510,7 +22584,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -22521,7 +22595,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -22532,7 +22606,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -22560,19 +22634,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -22580,7 +22654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -22588,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -22596,7 +22670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -22621,20 +22695,20 @@
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -22768,7 +22842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -22902,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -23036,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -23170,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -23304,7 +23378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -23438,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -23572,7 +23646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -23706,7 +23780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -23840,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -23974,7 +24048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -24108,7 +24182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -24242,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -24376,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -24510,7 +24584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -24644,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -24778,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -24912,7 +24986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -25046,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -25180,7 +25254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -25314,7 +25388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -25448,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -25582,7 +25656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -25716,7 +25790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -25850,7 +25924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -25984,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -26118,7 +26192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -26252,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -26386,7 +26460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -26520,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -26654,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -26788,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -26922,7 +26996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -27056,7 +27130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -27190,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -27324,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -27458,7 +27532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -27592,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -27726,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -27860,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -27994,7 +28068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -28128,7 +28202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -28262,7 +28336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -28396,7 +28470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -28530,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -28664,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -28798,7 +28872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -28932,7 +29006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -29066,7 +29140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -29200,7 +29274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -29334,7 +29408,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -29468,7 +29542,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -29602,7 +29676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -29736,7 +29810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -29870,7 +29944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -30020,19 +30094,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -30040,7 +30114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -30048,7 +30122,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -30071,18 +30145,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -30090,7 +30164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -30098,7 +30172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -30106,7 +30180,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -30114,7 +30188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -30122,7 +30196,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -30130,7 +30204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -30138,7 +30212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -30146,7 +30220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -30154,7 +30228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -30162,7 +30236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -30170,7 +30244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -30178,7 +30252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -30186,7 +30260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -30194,7 +30268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>102</v>
       </c>
@@ -30202,7 +30276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -30210,7 +30284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -30218,7 +30292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -30226,7 +30300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>129</v>
       </c>
@@ -30234,7 +30308,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>130</v>
       </c>
@@ -30258,17 +30332,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>266</v>
       </c>
@@ -30288,7 +30362,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -30308,7 +30382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -30328,7 +30402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -30348,7 +30422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -30368,7 +30442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -30388,7 +30462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -30408,7 +30482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -30428,7 +30502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -30448,7 +30522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -30468,7 +30542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -30488,7 +30562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
@@ -30508,7 +30582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
@@ -30528,7 +30602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -30548,7 +30622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="116" t="s">
         <v>102</v>
       </c>
@@ -30568,7 +30642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -30588,7 +30662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -30608,7 +30682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -30645,19 +30719,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>267</v>
       </c>
@@ -30668,7 +30742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -30679,7 +30753,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -30690,7 +30764,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -30701,7 +30775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -30712,7 +30786,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -30741,19 +30815,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>271</v>
       </c>
@@ -30761,7 +30835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>186</v>
       </c>
@@ -30769,7 +30843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>187</v>
       </c>
@@ -30794,19 +30868,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -30817,7 +30891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -30828,7 +30902,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -30839,7 +30913,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -30863,32 +30937,34 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
@@ -30896,7 +30972,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>121</v>
       </c>
@@ -30919,19 +30995,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>272</v>
       </c>
@@ -30939,7 +31015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>178</v>
       </c>
@@ -30947,7 +31023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -30972,20 +31048,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -31005,7 +31081,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -31025,7 +31101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -31045,7 +31121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -31065,7 +31141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>139</v>
       </c>
@@ -31085,7 +31161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -31105,7 +31181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -31125,7 +31201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -31145,7 +31221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>139</v>
       </c>
@@ -31165,7 +31241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -31185,7 +31261,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -31205,7 +31281,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -31225,7 +31301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -31262,21 +31338,21 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>273</v>
       </c>
@@ -31293,7 +31369,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>140</v>
       </c>
@@ -31310,7 +31386,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>141</v>
       </c>
@@ -31327,7 +31403,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -31344,10 +31420,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="88"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="88"/>
     </row>
   </sheetData>
@@ -31367,19 +31443,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -31387,7 +31463,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>277</v>
       </c>
@@ -31413,9 +31489,9 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -31424,7 +31500,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -31558,7 +31634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -31680,7 +31756,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -31802,7 +31878,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -31924,7 +32000,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -32046,7 +32122,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -32168,7 +32244,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -32290,7 +32366,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -32412,7 +32488,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -32534,7 +32610,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -32656,7 +32732,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -32778,7 +32854,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -32900,7 +32976,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -33022,7 +33098,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -33144,7 +33220,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -33266,7 +33342,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -33387,7 +33463,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -33507,7 +33583,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -33627,7 +33703,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>145</v>
       </c>
@@ -33741,7 +33817,7 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="31"/>
     </row>
-    <row r="21" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
@@ -33855,7 +33931,7 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="31"/>
     </row>
-    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>147</v>
       </c>
@@ -33969,7 +34045,7 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="31"/>
     </row>
-    <row r="23" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
@@ -34083,7 +34159,7 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="31"/>
     </row>
-    <row r="24" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>149</v>
       </c>
@@ -34197,7 +34273,7 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="31"/>
     </row>
-    <row r="25" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>150</v>
       </c>
@@ -34311,7 +34387,7 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="31"/>
     </row>
-    <row r="26" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>151</v>
       </c>
@@ -34425,7 +34501,7 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="31"/>
     </row>
-    <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>152</v>
       </c>
@@ -34539,7 +34615,7 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="31"/>
     </row>
-    <row r="28" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>153</v>
       </c>
@@ -34653,7 +34729,7 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="31"/>
     </row>
-    <row r="29" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>154</v>
       </c>
@@ -34767,7 +34843,7 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="31"/>
     </row>
-    <row r="30" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>155</v>
       </c>
@@ -34881,7 +34957,7 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="31"/>
     </row>
-    <row r="31" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>156</v>
       </c>
@@ -34995,7 +35071,7 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="31"/>
     </row>
-    <row r="32" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>157</v>
       </c>
@@ -35109,7 +35185,7 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="31"/>
     </row>
-    <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>158</v>
       </c>
@@ -35223,7 +35299,7 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="31"/>
     </row>
-    <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>159</v>
       </c>
@@ -35337,7 +35413,7 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="31"/>
     </row>
-    <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>160</v>
       </c>
@@ -35451,7 +35527,7 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="31"/>
     </row>
-    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>161</v>
       </c>
@@ -35565,7 +35641,7 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="31"/>
     </row>
-    <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>162</v>
       </c>
@@ -35679,7 +35755,7 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="31"/>
     </row>
-    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>163</v>
       </c>
@@ -35793,7 +35869,7 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="31"/>
     </row>
-    <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>164</v>
       </c>
@@ -35909,7 +35985,7 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="31"/>
     </row>
-    <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>165</v>
       </c>
@@ -36023,7 +36099,7 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="31"/>
     </row>
-    <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>166</v>
       </c>
@@ -36137,7 +36213,7 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="31"/>
     </row>
-    <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -36253,7 +36329,7 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="31"/>
     </row>
-    <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
@@ -36367,7 +36443,7 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="31"/>
     </row>
-    <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
@@ -36481,7 +36557,7 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="31"/>
     </row>
-    <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
@@ -36593,7 +36669,7 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="31"/>
     </row>
-    <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
@@ -36707,7 +36783,7 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="31"/>
     </row>
-    <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
@@ -36817,7 +36893,7 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="31"/>
     </row>
-    <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -36867,7 +36943,7 @@
       <c r="AQ48" s="94"/>
       <c r="AR48" s="102"/>
     </row>
-    <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -36917,7 +36993,7 @@
       </c>
       <c r="AR49" s="31"/>
     </row>
-    <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -37013,7 +37089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -37135,7 +37211,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -37257,7 +37333,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -37369,7 +37445,7 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="31"/>
     </row>
-    <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -37419,7 +37495,7 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="31"/>
     </row>
-    <row r="55" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -37471,7 +37547,7 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="31"/>
     </row>
-    <row r="56" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -37539,9 +37615,9 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -37550,7 +37626,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>266</v>
       </c>
@@ -37567,7 +37643,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>154</v>
       </c>
@@ -37584,7 +37660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>156</v>
       </c>
@@ -37601,7 +37677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>153</v>
       </c>
@@ -37618,7 +37694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>155</v>
       </c>
@@ -37652,19 +37728,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>270</v>
       </c>
@@ -37672,7 +37748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -37680,7 +37756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>175</v>
       </c>
@@ -37688,7 +37764,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>176</v>
       </c>
@@ -37713,19 +37789,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>270</v>
       </c>
@@ -37733,7 +37809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -37741,7 +37817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>175</v>
       </c>
@@ -37749,7 +37825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>176</v>
       </c>
@@ -37774,18 +37850,18 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -37796,7 +37872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -37807,7 +37883,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -37818,7 +37894,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -37829,7 +37905,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -37840,7 +37916,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -37851,7 +37927,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -37862,7 +37938,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -37873,7 +37949,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -37884,7 +37960,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -37895,7 +37971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -37906,7 +37982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -37917,7 +37993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -37944,14 +38020,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -37962,7 +38038,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -37973,7 +38049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -37984,7 +38060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -37995,7 +38071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -38006,7 +38082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -38017,7 +38093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -38028,7 +38104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -38039,7 +38115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -38050,7 +38126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -38061,7 +38137,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>137</v>
       </c>
@@ -38072,7 +38148,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>138</v>
       </c>
@@ -38083,7 +38159,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
@@ -38108,43 +38184,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -38167,17 +38243,17 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>269</v>
       </c>
@@ -38185,7 +38261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="119" t="s">
         <v>140</v>
       </c>
@@ -38193,7 +38269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
         <v>141</v>
       </c>
@@ -38201,7 +38277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -38225,17 +38301,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -38243,7 +38319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -38251,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -38259,7 +38335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -38267,7 +38343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -38291,17 +38367,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -38309,7 +38385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -38317,7 +38393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -38325,7 +38401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -38349,17 +38425,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -38367,7 +38443,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>280</v>
       </c>
@@ -38375,7 +38451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>281</v>
       </c>
@@ -38393,23 +38469,24 @@
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -38417,7 +38494,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>283</v>
       </c>
@@ -38425,12 +38502,21 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="39">
         <v>20</v>
+      </c>
+      <c r="F4" s="122"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="123">
+        <v>30341</v>
       </c>
     </row>
   </sheetData>
@@ -38449,24 +38535,24 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>285</v>
       </c>
@@ -38474,7 +38560,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -38482,7 +38568,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -38490,7 +38576,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -38498,7 +38584,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -38506,7 +38592,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -38514,7 +38600,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -38522,7 +38608,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -38530,7 +38616,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -38538,7 +38624,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -38546,7 +38632,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -38554,7 +38640,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -38562,7 +38648,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -38570,7 +38656,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -38578,7 +38664,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -38586,7 +38672,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -38594,7 +38680,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -38619,18 +38705,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>285</v>
       </c>
@@ -38638,7 +38724,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>132</v>
       </c>
@@ -38646,7 +38732,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -38654,7 +38740,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -38676,22 +38762,22 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -38699,7 +38785,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -38707,7 +38793,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -38717,6 +38803,297 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8CCF07-7F08-49BC-A372-E35FD983AA85}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="124">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="124">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="124">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="124">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="124">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="124">
+        <v>22</v>
+      </c>
+      <c r="C4" s="124">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="124">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="124">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="125">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="124">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="124">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="124">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="124">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="125">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="124">
+        <v>970</v>
+      </c>
+      <c r="C6" s="124">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="124">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="124">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="125">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="126">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="126">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="126">
+        <v>2</v>
+      </c>
+      <c r="E7" s="126">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="127">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3BE152-3E33-49C8-BF30-AB8966719557}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
+        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="124">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="124">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="124">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="124">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="124">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="124">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="124">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="124">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="126">
+        <v>9600</v>
+      </c>
+      <c r="C5" s="126">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="126">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="126">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="127">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38731,30 +39108,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>130</v>
       </c>
@@ -38766,6 +39143,78 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD75F18C-52C4-4B6A-911E-06E073E0AAFF}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="122">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="B1" s="122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C1" s="122">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D1" s="122">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E1" s="122">
+        <v>0.17</v>
+      </c>
+      <c r="F1" s="122">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="122">
+        <f>A1*50*110</f>
+        <v>35.75</v>
+      </c>
+      <c r="B3" s="122">
+        <f>B1*50*110</f>
+        <v>12649.999999999998</v>
+      </c>
+      <c r="C3" s="122">
+        <f>C1*50*110</f>
+        <v>120.99999999999999</v>
+      </c>
+      <c r="D3" s="122">
+        <f>D1*50*110</f>
+        <v>770.00000000000011</v>
+      </c>
+      <c r="E3" s="122">
+        <f>E1*50*110</f>
+        <v>935</v>
+      </c>
+      <c r="F3" s="122">
+        <f>F1*50*110</f>
+        <v>2035000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -38780,30 +39229,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
@@ -38811,7 +39260,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A4BD2-73A6-435D-B9BD-099E2568F982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D22880-99B1-4AE4-BD86-A856CCB58981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -31502,7 +31502,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31512,8 +31512,8 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>CONCATENATE( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Beneficial Reuse Capacity [bbl/day]</v>
+        <f>CONCATENATE( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"] (leave cells blank to indicate infinite capacity)")</f>
+        <v>Table of Beneficial Reuse Capacity [bbl/day] (leave cells blank to indicate infinite capacity)</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802EF38-2C00-44E5-AB4C-B585E220B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE910DB5-83DB-4511-A87A-154FCC1DFEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="75" activeTab="82" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="79" activeTab="84" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -96,7 +96,8 @@
     <sheet name="TreatmentExpansionLeadTime" sheetId="121" r:id="rId81"/>
     <sheet name="DisposalExpansionLeadTime" sheetId="122" r:id="rId82"/>
     <sheet name="StorageExpansionLeadTime" sheetId="123" r:id="rId83"/>
-    <sheet name="PipelineExpansionLeadTime" sheetId="120" r:id="rId84"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="120" r:id="rId84"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="124" r:id="rId85"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">#REF!</definedName>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="308">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1044,6 +1045,9 @@
   </si>
   <si>
     <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
+  </si>
+  <si>
+    <t>pipeline_expansion_lead_time</t>
   </si>
 </sst>
 </file>
@@ -6944,7 +6948,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -38401,9 +38405,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -38448,7 +38450,7 @@
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5:E6"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomLeft" activeCell="AQ49" sqref="AQ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44574,7 +44576,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45838,7 +45840,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46218,16 +46220,16 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"s]")</f>
-        <v>Table of Storage Expansion Lead Time [days]</v>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [days]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -46286,12 +46288,152 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [days/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="39">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E435A8-16A8-45F0-B48E-2BA75B04538C}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [days]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="52">
+        <v>30</v>
+      </c>
+      <c r="D3" s="52">
+        <v>30</v>
+      </c>
+      <c r="E3" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="52">
+        <v>30</v>
+      </c>
+      <c r="D4" s="52">
+        <v>30</v>
+      </c>
+      <c r="E4" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="52">
+        <v>30</v>
+      </c>
+      <c r="D5" s="52">
+        <v>30</v>
+      </c>
+      <c r="E5" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="55">
+        <v>30</v>
+      </c>
+      <c r="D6" s="55">
+        <v>30</v>
+      </c>
+      <c r="E6" s="56">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15788C23-7E82-480E-AB85-C4C72ABB0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68331FA3-B4C3-4919-9323-B9DF25A0542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="929" firstSheet="87" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="17640" tabRatio="929" firstSheet="87" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -1701,7 +1701,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2008,6 +2008,10 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2227,8 +2231,8 @@
       <sheetName val="PipelineExpansionLeadTime_Capac"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
@@ -2311,88 +2315,88 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3261,7 +3265,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38501,7 +38505,7 @@
   <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
@@ -45929,8 +45933,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45974,16 +45978,16 @@
         <v>140</v>
       </c>
       <c r="C3" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D3" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E3" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F3" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -45994,16 +45998,16 @@
         <v>140</v>
       </c>
       <c r="C4" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E4" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F4" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46014,16 +46018,16 @@
         <v>140</v>
       </c>
       <c r="C5" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D5" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E5" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F5" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46034,16 +46038,16 @@
         <v>140</v>
       </c>
       <c r="C6" s="130">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" s="116">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E6" s="116">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F6" s="84">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46054,16 +46058,16 @@
         <v>141</v>
       </c>
       <c r="C7" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E7" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F7" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46074,16 +46078,16 @@
         <v>141</v>
       </c>
       <c r="C8" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D8" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E8" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F8" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46094,16 +46098,16 @@
         <v>141</v>
       </c>
       <c r="C9" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D9" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E9" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F9" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46114,16 +46118,16 @@
         <v>141</v>
       </c>
       <c r="C10" s="130">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10" s="116">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E10" s="116">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F10" s="84">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46134,16 +46138,16 @@
         <v>142</v>
       </c>
       <c r="C11" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D11" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E11" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F11" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46154,16 +46158,16 @@
         <v>142</v>
       </c>
       <c r="C12" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D12" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E12" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F12" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -46174,16 +46178,16 @@
         <v>142</v>
       </c>
       <c r="C13" s="36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D13" s="36">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E13" s="36">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F13" s="37">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -46194,16 +46198,16 @@
         <v>142</v>
       </c>
       <c r="C14" s="38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D14" s="38">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E14" s="38">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F14" s="39">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -46218,8 +46222,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46248,10 +46252,10 @@
         <v>123</v>
       </c>
       <c r="B3" s="131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" s="37">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -46259,10 +46263,10 @@
         <v>124</v>
       </c>
       <c r="B4" s="131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" s="37">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -46270,10 +46274,10 @@
         <v>125</v>
       </c>
       <c r="B5" s="131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C5" s="37">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -46281,10 +46285,10 @@
         <v>126</v>
       </c>
       <c r="B6" s="131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C6" s="37">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -46292,10 +46296,10 @@
         <v>127</v>
       </c>
       <c r="B7" s="38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C7" s="39">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -46310,8 +46314,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46340,10 +46344,10 @@
         <v>132</v>
       </c>
       <c r="B3" s="131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" s="37">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -46351,10 +46355,10 @@
         <v>133</v>
       </c>
       <c r="B4" s="131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" s="37">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -46362,10 +46366,10 @@
         <v>134</v>
       </c>
       <c r="B5" s="38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C5" s="39">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -46380,8 +46384,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46407,8 +46411,8 @@
       <c r="A3" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="39">
-        <v>30</v>
+      <c r="B3" s="132">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -46424,7 +46428,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46462,14 +46466,14 @@
       <c r="B3" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="52">
-        <v>30</v>
-      </c>
-      <c r="D3" s="52">
-        <v>30</v>
+      <c r="C3" s="133">
+        <v>0</v>
+      </c>
+      <c r="D3" s="133">
+        <v>1</v>
       </c>
       <c r="E3" s="53">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -46479,14 +46483,14 @@
       <c r="B4" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="52">
-        <v>30</v>
-      </c>
-      <c r="D4" s="52">
-        <v>30</v>
+      <c r="C4" s="133">
+        <v>0</v>
+      </c>
+      <c r="D4" s="133">
+        <v>1</v>
       </c>
       <c r="E4" s="53">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -46496,14 +46500,14 @@
       <c r="B5" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="52">
-        <v>30</v>
-      </c>
-      <c r="D5" s="52">
-        <v>30</v>
+      <c r="C5" s="133">
+        <v>0</v>
+      </c>
+      <c r="D5" s="133">
+        <v>1</v>
       </c>
       <c r="E5" s="53">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -46514,13 +46518,13 @@
         <v>153</v>
       </c>
       <c r="C6" s="55">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" s="55">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E6" s="56">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520F04E9-BC1C-4212-92E3-79288104FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E17D4-A77A-412F-908D-9D8F75C60A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="929" firstSheet="89" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="929" firstSheet="89" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -46050,8 +46050,8 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Storage Expansion Lead Time - Distance Based [weeks]</v>
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Storage Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E855CB8A-D94C-4C9E-9995-A09D78048264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E00B6-171A-4C7F-B650-B6F222ED2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -97,18 +97,19 @@
     <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
     <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
     <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
-    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId85"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId86"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId87"/>
-    <sheet name="Economics" sheetId="95" r:id="rId88"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId89"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId90"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId91"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId92"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId93"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId94"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId96"/>
+    <sheet name="BeneficialReuseCost" sheetId="138" r:id="rId85"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId86"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
+    <sheet name="Economics" sheetId="95" r:id="rId89"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId93"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId94"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -45213,6 +45214,33 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823AFEBC-B792-4B8A-886B-A98A6A68E8F9}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6590066-9C40-4D54-9CAB-C4CFCBEB3031}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45220,7 +45248,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45239,7 +45267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45298,7 +45326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45372,7 +45400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45420,178 +45448,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="59">
-        <v>142277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="60">
-        <v>140998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="60">
-        <v>172490.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="60">
-        <v>257547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="60">
-        <v>241833.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="60">
-        <v>188503.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="60">
-        <v>146716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="60">
-        <v>216563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="60">
-        <v>150626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="60">
-        <v>247061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="60">
-        <v>180968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="60">
-        <v>195584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="60">
-        <v>148655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="129">
-        <v>185369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="60">
-        <v>165376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="61">
-        <v>240977</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45649,6 +45505,178 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="59">
+        <v>142277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="60">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="60">
+        <v>172490.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="60">
+        <v>257547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="60">
+        <v>241833.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="60">
+        <v>188503.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="60">
+        <v>146716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="60">
+        <v>216563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="60">
+        <v>150626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="60">
+        <v>247061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="60">
+        <v>180968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="60">
+        <v>195584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="60">
+        <v>148655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="129">
+        <v>185369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="60">
+        <v>165376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="61">
+        <v>240977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45710,7 +45738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45763,7 +45791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF02372-561D-40F0-A559-919B07A104BB}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46052,7 +46080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFFE531-B1A6-4FB1-B54F-4F29B07D584D}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46144,7 +46172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6A12E-8B05-4366-A90E-CF297972EC8F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46214,7 +46242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE98AFE6-8AD4-4F61-8FD9-8C39A28FF436}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46257,7 +46285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64191092-61FC-49E2-8B87-F024EB93CA2E}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A793C9-CDAD-47AC-9FAC-61498B5FC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E17D4-A77A-412F-908D-9D8F75C60A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="929" firstSheet="88" activeTab="89" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="929" firstSheet="89" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -102,13 +102,11 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId87"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId88"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId89"/>
-    <sheet name="AirEmissionCoefficients" sheetId="134" r:id="rId90"/>
-    <sheet name="TreatmentEmissionCoefficients" sheetId="135" r:id="rId91"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId92"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId93"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId94"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId96"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId90"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId91"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId92"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId93"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId94"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
@@ -135,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="314">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1078,36 +1076,6 @@
   <si>
     <t>pipeline_expansion_lead_time</t>
   </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>PM 2.5</t>
-  </si>
-  <si>
-    <t>Trucking (g/hour)</t>
-  </si>
-  <si>
-    <t>Pipeline Operations (g/(bbl-mile))</t>
-  </si>
-  <si>
-    <t>Pipeline Installation (g/mile)</t>
-  </si>
-  <si>
-    <t>Disposal (g/bbl)</t>
-  </si>
-  <si>
-    <t>Storage (g/bbl-week)</t>
-  </si>
 </sst>
 </file>
 
@@ -1212,7 +1180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1723,19 +1691,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1743,7 +1698,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2048,27 +2003,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -45721,270 +45655,6 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD14726F-A828-41EA-8E78-20C9A2A31A3F}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
-        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="132">
-        <v>2035000</v>
-      </c>
-      <c r="C3" s="132">
-        <v>35.75</v>
-      </c>
-      <c r="D3" s="132">
-        <v>12649.999999999998</v>
-      </c>
-      <c r="E3" s="132">
-        <v>770.00000000000011</v>
-      </c>
-      <c r="F3" s="132">
-        <v>120.99999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="132">
-        <v>22</v>
-      </c>
-      <c r="C4" s="132">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D4" s="132">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E4" s="132">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="F4" s="133">
-        <v>8.5999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" s="132">
-        <v>310000000</v>
-      </c>
-      <c r="C5" s="132">
-        <v>2800</v>
-      </c>
-      <c r="D5" s="132">
-        <v>190000</v>
-      </c>
-      <c r="E5" s="132">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="133">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" s="132">
-        <v>970</v>
-      </c>
-      <c r="C6" s="132">
-        <v>0.13</v>
-      </c>
-      <c r="D6" s="132">
-        <v>9.5</v>
-      </c>
-      <c r="E6" s="132">
-        <v>2.8</v>
-      </c>
-      <c r="F6" s="133">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="134">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="134">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D7" s="134">
-        <v>2</v>
-      </c>
-      <c r="E7" s="134">
-        <v>0.65</v>
-      </c>
-      <c r="F7" s="135">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD4DC5B-96A4-4920-A58A-08D189576A6D}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
-        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="136" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="132">
-        <v>9600</v>
-      </c>
-      <c r="C3" s="132">
-        <v>1.45</v>
-      </c>
-      <c r="D3" s="132">
-        <v>12.8</v>
-      </c>
-      <c r="E3" s="132">
-        <v>13.5</v>
-      </c>
-      <c r="F3" s="133">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="132">
-        <v>9600</v>
-      </c>
-      <c r="C4" s="132">
-        <v>1.45</v>
-      </c>
-      <c r="D4" s="132">
-        <v>12.8</v>
-      </c>
-      <c r="E4" s="132">
-        <v>13.5</v>
-      </c>
-      <c r="F4" s="133">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="134">
-        <v>9600</v>
-      </c>
-      <c r="C5" s="134">
-        <v>1.45</v>
-      </c>
-      <c r="D5" s="134">
-        <v>12.8</v>
-      </c>
-      <c r="E5" s="134">
-        <v>13.5</v>
-      </c>
-      <c r="F5" s="135">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF02372-561D-40F0-A559-919B07A104BB}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46273,7 +45943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFFE531-B1A6-4FB1-B54F-4F29B07D584D}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46365,7 +46035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6A12E-8B05-4366-A90E-CF297972EC8F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46435,7 +46105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE98AFE6-8AD4-4F61-8FD9-8C39A28FF436}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46478,14 +46148,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64191092-61FC-49E2-8B87-F024EB93CA2E}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E00B6-171A-4C7F-B650-B6F222ED2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDA91F-B454-47D0-9444-505E19200729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="315">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -940,9 +940,6 @@
   </si>
   <si>
     <t>PipelineDiameters</t>
-  </si>
-  <si>
-    <t>InjectionCapacities</t>
   </si>
   <si>
     <t>StorageCapacities</t>
@@ -6761,7 +6758,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6872,7 +6869,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,7 +7168,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BA8" s="32" t="s">
         <v>76</v>
@@ -7179,22 +7176,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="D9" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>291</v>
-      </c>
       <c r="E9" s="70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="63"/>
@@ -7219,7 +7216,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -7227,13 +7224,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="63"/>
@@ -7261,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -7362,7 +7359,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7437,7 +7434,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,7 +7584,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7682,7 +7679,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7733,7 +7730,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,7 +8647,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,7 +8719,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,7 +8769,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,7 +8810,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,7 +8868,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13165,16 +13162,16 @@
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -24042,7 +24039,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -31680,7 +31677,7 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -33661,7 +33658,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -37628,7 +37625,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37721,10 +37718,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37733,33 +37730,75 @@
     <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="48">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39">
         <v>7143</v>
       </c>
     </row>
@@ -37867,7 +37906,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>46</v>
@@ -38212,7 +38251,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>181</v>
@@ -38319,12 +38358,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="39">
         <v>300000</v>
@@ -38501,118 +38540,118 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD3" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH3" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN3" s="9"/>
       <c r="AO3" s="96"/>
       <c r="AP3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR3" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -38620,121 +38659,121 @@
         <v>90</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="9">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD4" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH4" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="96"/>
       <c r="AP4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -38742,121 +38781,121 @@
         <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="9">
         <v>1.2563</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD5" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH5" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="96"/>
       <c r="AP5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR5" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -38864,121 +38903,121 @@
         <v>92</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L6" s="9">
         <v>2.5074000000000001</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD6" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH6" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="96"/>
       <c r="AP6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR6" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -38986,121 +39025,121 @@
         <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K7" s="9">
         <v>5.9184867367820804</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M7" s="9">
         <v>1.4871000000000001</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD7" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH7" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="96"/>
       <c r="AP7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -39108,121 +39147,121 @@
         <v>94</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="9">
         <v>2.4758</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD8" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH8" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN8" s="9"/>
       <c r="AO8" s="96"/>
       <c r="AP8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR8" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -39230,121 +39269,121 @@
         <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P9" s="9">
         <v>3.0722259990726202</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD9" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH9" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="96"/>
       <c r="AP9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR9" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -39352,121 +39391,121 @@
         <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S10" s="9">
         <v>9.952</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD10" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH10" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN10" s="9"/>
       <c r="AO10" s="96"/>
       <c r="AP10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR10" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -39474,121 +39513,121 @@
         <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V11" s="9">
         <v>2.4247000000000001</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD11" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH11" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="96"/>
       <c r="AP11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR11" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -39596,121 +39635,121 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T12" s="9">
         <v>2.4037000000000002</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD12" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH12" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN12" s="9"/>
       <c r="AO12" s="96"/>
       <c r="AP12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR12" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -39718,121 +39757,121 @@
         <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z13" s="9">
         <v>3.8296999999999999</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH13" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN13" s="9"/>
       <c r="AO13" s="96"/>
       <c r="AP13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR13" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -39840,121 +39879,121 @@
         <v>100</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB14" s="9">
         <v>8.504999999999999</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD14" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH14" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN14" s="9"/>
       <c r="AO14" s="96"/>
       <c r="AP14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR14" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -39962,121 +40001,121 @@
         <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB15" s="9">
         <v>8.9529999999999994</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD15" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH15" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="96"/>
       <c r="AP15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR15" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -40084,121 +40123,121 @@
         <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB16" s="9">
         <v>1.2424999999999999</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD16" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH16" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="96"/>
       <c r="AP16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR16" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -40206,120 +40245,120 @@
         <v>119</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="93"/>
       <c r="E17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I17" s="93">
         <f>2*F4</f>
         <v>3.3694000000000002</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD17" s="108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH17" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI17" s="93"/>
       <c r="AJ17" s="93"/>
       <c r="AK17" s="93"/>
       <c r="AL17" s="93"/>
       <c r="AM17" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN17" s="105"/>
       <c r="AO17" s="107"/>
       <c r="AP17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR17" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -40327,119 +40366,119 @@
         <v>120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R18" s="9">
         <v>2.0697000000000001</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD18" s="109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH18" s="89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN18" s="32"/>
       <c r="AO18" s="89"/>
       <c r="AP18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -40447,119 +40486,119 @@
         <v>121</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R19" s="98"/>
       <c r="S19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD19" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH19" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI19" s="98"/>
       <c r="AJ19" s="98"/>
       <c r="AK19" s="98"/>
       <c r="AL19" s="98"/>
       <c r="AM19" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN19" s="98"/>
       <c r="AO19" s="99"/>
       <c r="AP19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR19" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -40567,103 +40606,103 @@
         <v>145</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="128">
         <v>4.0752409775985399</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD20" s="110">
         <v>4.1717000000000004</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH20" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
@@ -40684,100 +40723,100 @@
         <v>4.0752409775985399</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="9">
         <v>1.8142</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD21" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH21" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
@@ -40795,103 +40834,103 @@
         <v>147</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD22" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH22" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
@@ -40909,103 +40948,103 @@
         <v>148</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G23" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD23" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE23" s="9">
         <v>1.3163</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH23" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
@@ -41023,103 +41062,103 @@
         <v>149</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="128">
         <v>1.8142</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I24" s="9">
         <v>1.4431</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD24" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH24" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
@@ -41137,103 +41176,103 @@
         <v>150</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H25" s="9">
         <v>1.153</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD25" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH25" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
@@ -41251,25 +41290,25 @@
         <v>151</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" s="9">
         <v>1.153</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I26" s="9">
         <v>6.0780000000000003</v>
@@ -41278,76 +41317,76 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD26" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH26" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
@@ -41365,103 +41404,103 @@
         <v>152</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F27" s="9">
         <v>1.4431</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H27" s="9">
         <v>6.0780000000000003</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD27" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH27" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -41479,31 +41518,31 @@
         <v>153</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H28" s="9">
         <v>2.4449000000000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28" s="9">
         <v>3.2</v>
@@ -41512,70 +41551,70 @@
         <v>3.8851</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD28" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH28" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
@@ -41593,101 +41632,101 @@
         <v>154</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J29" s="9">
         <v>3.2</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD29" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH29" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI29" s="9">
         <v>2.5</v>
@@ -41707,103 +41746,103 @@
         <v>155</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J30" s="9">
         <v>3.8851</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N30" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD30" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH30" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
@@ -41821,101 +41860,101 @@
         <v>156</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O31" s="9">
         <v>5.3</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD31" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH31" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9">
@@ -41935,103 +41974,103 @@
         <v>157</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L32" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O32" s="9">
         <v>3.1087656701677102</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD32" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF32" s="9">
         <v>3.0184000000000002</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH32" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
@@ -42049,37 +42088,37 @@
         <v>158</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M33" s="9">
         <v>5.3</v>
@@ -42088,64 +42127,64 @@
         <v>3.1087656701677102</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC33" s="9">
         <v>1.3958999999999999</v>
       </c>
       <c r="AD33" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH33" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
@@ -42163,103 +42202,103 @@
         <v>159</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q34" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC34" s="9">
         <v>7.1440000000000001</v>
       </c>
       <c r="AD34" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH34" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
@@ -42277,103 +42316,103 @@
         <v>160</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P35" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R35" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD35" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH35" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -42391,103 +42430,103 @@
         <v>161</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q36" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD36" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG36" s="9">
         <v>6.4859913942891003</v>
       </c>
       <c r="AH36" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
@@ -42505,103 +42544,103 @@
         <v>162</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T37" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD37" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG37" s="9">
         <v>3.419</v>
       </c>
       <c r="AH37" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9"/>
@@ -42619,103 +42658,103 @@
         <v>163</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S38" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W38" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD38" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH38" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
@@ -42733,103 +42772,103 @@
         <v>164</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V39" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC39" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="AD39" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH39" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
@@ -42849,103 +42888,103 @@
         <v>165</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U40" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W40" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD40" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH40" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9"/>
@@ -42963,103 +43002,103 @@
         <v>166</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T41" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V41" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X41" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD41" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF41" s="9">
         <v>3.8807999999999998</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH41" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
@@ -43077,103 +43116,103 @@
         <v>167</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W42" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y42" s="9">
         <v>2.8607</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD42" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH42" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
@@ -43193,103 +43232,103 @@
         <v>168</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X43" s="9">
         <v>2.8607</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z43" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD43" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH43" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9"/>
@@ -43307,103 +43346,103 @@
         <v>169</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y44" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA44" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD44" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH44" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
@@ -43421,98 +43460,98 @@
         <v>170</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z45" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB45" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AC45" s="9"/>
       <c r="AD45" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH45" s="96">
         <v>3.2</v>
@@ -43533,103 +43572,103 @@
         <v>171</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA46" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD46" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH46" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
@@ -43647,43 +43686,43 @@
         <v>172</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O47" s="9">
         <v>1.3958999999999999</v>
@@ -43692,53 +43731,53 @@
         <v>7.1440000000000001</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U47" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD47" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH47" s="96"/>
       <c r="AI47" s="9"/>
@@ -43870,79 +43909,79 @@
       <c r="M50" s="98"/>
       <c r="N50" s="98"/>
       <c r="O50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD50" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH50" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI50" s="98"/>
       <c r="AJ50" s="98"/>
       <c r="AK50" s="98"/>
       <c r="AL50" s="98"/>
       <c r="AM50" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN50" s="98"/>
       <c r="AO50" s="99"/>
       <c r="AP50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR50" s="102">
         <v>6</v>
@@ -43953,110 +43992,110 @@
         <v>129</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD51" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH51" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI51" s="93"/>
       <c r="AJ51" s="93"/>
       <c r="AK51" s="93"/>
       <c r="AL51" s="93"/>
       <c r="AM51" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN51" s="93"/>
       <c r="AO51" s="94"/>
@@ -44075,110 +44114,110 @@
         <v>130</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD52" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH52" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI52" s="98"/>
       <c r="AJ52" s="98"/>
       <c r="AK52" s="98"/>
       <c r="AL52" s="98"/>
       <c r="AM52" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN52" s="98"/>
       <c r="AO52" s="99"/>
@@ -44197,99 +44236,99 @@
         <v>136</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K53" s="9">
         <v>2.5</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD53" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH53" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
@@ -44767,7 +44806,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44936,7 +44975,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44947,7 +44986,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -45106,7 +45145,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45165,7 +45204,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45286,7 +45325,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45346,7 +45385,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -45354,12 +45393,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="37">
         <v>110</v>
@@ -45367,7 +45406,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="45">
         <v>0.03</v>
@@ -45375,24 +45414,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="37">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="39">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -45419,7 +45458,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45427,12 +45466,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="45">
         <v>0.08</v>
@@ -45440,7 +45479,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="39">
         <v>20</v>
@@ -45536,10 +45575,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45702,10 +45741,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45767,7 +45806,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -46269,12 +46308,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" s="131">
         <v>0.2</v>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E00B6-171A-4C7F-B650-B6F222ED2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF12496-C7D1-4B19-BBDD-1A29A3A5C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -21,99 +21,101 @@
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
     <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
-    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId11"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId12"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId13"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId14"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId15"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId16"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId17"/>
-    <sheet name="PNA" sheetId="56" r:id="rId18"/>
-    <sheet name="CNA" sheetId="57" r:id="rId19"/>
-    <sheet name="CCA" sheetId="73" r:id="rId20"/>
-    <sheet name="NNA" sheetId="58" r:id="rId21"/>
-    <sheet name="NCA" sheetId="59" r:id="rId22"/>
-    <sheet name="NKA" sheetId="60" r:id="rId23"/>
-    <sheet name="NRA" sheetId="61" r:id="rId24"/>
-    <sheet name="NSA" sheetId="76" r:id="rId25"/>
-    <sheet name="NOA" sheetId="122" r:id="rId26"/>
-    <sheet name="SNA" sheetId="77" r:id="rId27"/>
-    <sheet name="SOA" sheetId="121" r:id="rId28"/>
-    <sheet name="FCA" sheetId="41" r:id="rId29"/>
-    <sheet name="RCA" sheetId="83" r:id="rId30"/>
-    <sheet name="RSA" sheetId="105" r:id="rId31"/>
-    <sheet name="SCA" sheetId="108" r:id="rId32"/>
-    <sheet name="RNA" sheetId="62" r:id="rId33"/>
-    <sheet name="ROA" sheetId="120" r:id="rId34"/>
-    <sheet name="RKA" sheetId="136" r:id="rId35"/>
-    <sheet name="PCT" sheetId="42" r:id="rId36"/>
-    <sheet name="FCT" sheetId="70" r:id="rId37"/>
-    <sheet name="PKT" sheetId="43" r:id="rId38"/>
-    <sheet name="CKT" sheetId="44" r:id="rId39"/>
-    <sheet name="CCT" sheetId="74" r:id="rId40"/>
-    <sheet name="CST" sheetId="64" r:id="rId41"/>
-    <sheet name="RST" sheetId="123" r:id="rId42"/>
-    <sheet name="ROT" sheetId="124" r:id="rId43"/>
-    <sheet name="SOT" sheetId="125" r:id="rId44"/>
-    <sheet name="RKT" sheetId="137" r:id="rId45"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId46"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId50"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId51"/>
-    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId52"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
-    <sheet name="ReuseMinimum" sheetId="126" r:id="rId56"/>
-    <sheet name="ReuseCapacity" sheetId="127" r:id="rId57"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId61"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId62"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId77"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId78"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId79"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId80"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId81"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
-    <sheet name="BeneficialReuseCost" sheetId="138" r:id="rId85"/>
-    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId86"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
-    <sheet name="Economics" sheetId="95" r:id="rId89"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId93"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId94"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
+    <sheet name="WaterQualityComponents" sheetId="139" r:id="rId9"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
+    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId12"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId13"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId14"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId15"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId16"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId17"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId18"/>
+    <sheet name="PNA" sheetId="56" r:id="rId19"/>
+    <sheet name="CNA" sheetId="57" r:id="rId20"/>
+    <sheet name="CCA" sheetId="73" r:id="rId21"/>
+    <sheet name="NNA" sheetId="58" r:id="rId22"/>
+    <sheet name="NCA" sheetId="59" r:id="rId23"/>
+    <sheet name="NKA" sheetId="60" r:id="rId24"/>
+    <sheet name="NRA" sheetId="61" r:id="rId25"/>
+    <sheet name="NSA" sheetId="76" r:id="rId26"/>
+    <sheet name="NOA" sheetId="122" r:id="rId27"/>
+    <sheet name="SNA" sheetId="77" r:id="rId28"/>
+    <sheet name="SOA" sheetId="121" r:id="rId29"/>
+    <sheet name="FCA" sheetId="41" r:id="rId30"/>
+    <sheet name="RCA" sheetId="83" r:id="rId31"/>
+    <sheet name="RSA" sheetId="105" r:id="rId32"/>
+    <sheet name="SCA" sheetId="108" r:id="rId33"/>
+    <sheet name="RNA" sheetId="62" r:id="rId34"/>
+    <sheet name="ROA" sheetId="120" r:id="rId35"/>
+    <sheet name="RKA" sheetId="136" r:id="rId36"/>
+    <sheet name="PCT" sheetId="42" r:id="rId37"/>
+    <sheet name="FCT" sheetId="70" r:id="rId38"/>
+    <sheet name="PKT" sheetId="43" r:id="rId39"/>
+    <sheet name="CKT" sheetId="44" r:id="rId40"/>
+    <sheet name="CCT" sheetId="74" r:id="rId41"/>
+    <sheet name="CST" sheetId="64" r:id="rId42"/>
+    <sheet name="RST" sheetId="123" r:id="rId43"/>
+    <sheet name="ROT" sheetId="124" r:id="rId44"/>
+    <sheet name="SOT" sheetId="125" r:id="rId45"/>
+    <sheet name="RKT" sheetId="137" r:id="rId46"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId47"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId48"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId49"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId50"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId51"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId52"/>
+    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId53"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId54"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId55"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
+    <sheet name="ReuseMinimum" sheetId="126" r:id="rId57"/>
+    <sheet name="ReuseCapacity" sheetId="127" r:id="rId58"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId59"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId62"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId63"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId64"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId68"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId72"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId73"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId74"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId75"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId76"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId77"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId78"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId79"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId80"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId81"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId82"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId83"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId84"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId85"/>
+    <sheet name="BeneficialReuseCost" sheetId="138" r:id="rId86"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId87"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId88"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId89"/>
+    <sheet name="Economics" sheetId="95" r:id="rId90"/>
+    <sheet name="FreshwaterQuality" sheetId="140" r:id="rId91"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId92"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId93"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId94"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId95"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId96"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId97"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId98"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId99"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="77" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="77">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="316">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1707,7 +1709,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2012,6 +2014,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2995,6 +3003,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3056,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3112,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3156,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3338,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3388,7 +3449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3448,7 +3509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3512,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3572,7 +3633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4184,7 +4245,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="C3:M36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="40"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="41"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="42"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="42"/>
+      <c r="M31" s="26"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="42"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4409,79 +4542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="C3:M36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="40"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="41"/>
-      <c r="F21" s="41"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="42"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="42"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="42"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="42"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="42"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="42"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="42"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="42"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="42"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="42"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="42"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4547,7 +4608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5757,7 +5818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6029,7 +6090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6380,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6693,7 +6754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6743,7 +6804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128C9F10-CE90-494D-8C57-8F92F1447238}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6799,7 +6860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6853,7 +6914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5202470E-E975-4217-A409-8C10C569162A}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6892,68 +6953,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7344,6 +7343,68 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7418,7 +7479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0DBD1-9C53-4E86-8483-588C08719311}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7497,7 +7558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E8874E-11ED-45FA-AE95-642AF80BF911}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7568,7 +7629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7663,7 +7724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C95F9C-FA1A-429C-94DB-7469B7607C89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7714,7 +7775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C390631-9141-4367-876C-8B8C7DB728DE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7765,7 +7826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7920,7 +7981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7981,7 +8042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8300,114 +8361,6 @@
         <v>1</v>
       </c>
       <c r="F16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8524,6 +8477,114 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8589,7 +8650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8631,7 +8692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C8D473-2930-44EE-8137-39B9510AF450}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8704,7 +8765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A0C474-4CA3-482D-8EF9-161A6D97C2DB}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8754,7 +8815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80EBF5B-386F-48FB-AEF9-824F4D45CD63}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8795,7 +8856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0760AB0-D32B-4E99-8ACD-C8EA595D930F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8845,7 +8906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C2981-7DF6-4E1E-9B3F-307C90704C6F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9361,7 +9422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -10038,7 +10099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -12496,7 +12557,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13037,113 +13204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4E79A3-EE1E-46A1-84CE-D8C5F14D9087}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -16682,7 +16743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F279D59-CF57-42CD-9C09-61C92D7047B6}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24024,7 +24085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4083B03F-43EE-4FD3-B5B4-0D52688676BC}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31353,7 +31414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31431,7 +31492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31492,7 +31553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31591,7 +31652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AC10C-C440-4ADB-A331-07AA535B16B7}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31618,7 +31679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38BD3B1-CE73-47E8-BFE4-E0C0165A2C32}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31645,7 +31706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -32278,68 +32339,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="39">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -32400,6 +32399,68 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Completions Pad Storage Capacity [bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -32452,7 +32513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -32662,7 +32723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -33671,7 +33732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -33749,7 +33810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -33922,7 +33983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -33983,7 +34044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -36932,7 +36993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -36985,7 +37046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37169,393 +37230,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="9">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F3" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>11</v>
-      </c>
-      <c r="F4" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6</v>
-      </c>
-      <c r="F5" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F6" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>11</v>
-      </c>
-      <c r="F7" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D9" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F9" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>11</v>
-      </c>
-      <c r="F10" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6</v>
-      </c>
-      <c r="F11" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-      <c r="F13" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="9">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9">
-        <v>6</v>
-      </c>
-      <c r="F14" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F15" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="98">
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="98">
-        <v>2</v>
-      </c>
-      <c r="D16" s="98">
-        <v>5</v>
-      </c>
-      <c r="E16" s="98">
-        <v>11</v>
-      </c>
-      <c r="F16" s="102">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>6</v>
-      </c>
-      <c r="F17" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E18" s="9">
-        <v>5</v>
-      </c>
-      <c r="F18" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37621,6 +37295,393 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F3" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>11</v>
+      </c>
+      <c r="F4" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F6" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>11</v>
+      </c>
+      <c r="F7" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F9" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
+      </c>
+      <c r="F10" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F12" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>6</v>
+      </c>
+      <c r="F14" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F15" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="98">
+        <v>2</v>
+      </c>
+      <c r="D16" s="98">
+        <v>5</v>
+      </c>
+      <c r="E16" s="98">
+        <v>11</v>
+      </c>
+      <c r="F16" s="102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>6</v>
+      </c>
+      <c r="F17" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5</v>
+      </c>
+      <c r="F18" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="10">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37716,7 +37777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37769,7 +37830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37842,7 +37903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37895,7 +37956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -38185,7 +38246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -38290,7 +38351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -38335,7 +38396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -44463,7 +44524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -44576,7 +44637,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -44637,56 +44747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -44747,7 +44808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44918,7 +44979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBAE5B-BDCC-4DEB-A724-3B0573940C90}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45087,7 +45148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45146,7 +45207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45213,7 +45274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823AFEBC-B792-4B8A-886B-A98A6A68E8F9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45240,7 +45301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6590066-9C40-4D54-9CAB-C4CFCBEB3031}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45267,7 +45328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45326,7 +45387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45400,7 +45461,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682853F4-72D8-4EF0-AA50-363CCA43D5C1}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45451,60 +45543,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AADDC2-B2BB-401C-A679-13FE5CA73888}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>134</v>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="133">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45676,7 +45767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45738,7 +45829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45791,7 +45882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF02372-561D-40F0-A559-919B07A104BB}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46080,7 +46171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFFE531-B1A6-4FB1-B54F-4F29B07D584D}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46172,7 +46263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6A12E-8B05-4366-A90E-CF297972EC8F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46242,7 +46333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE98AFE6-8AD4-4F61-8FD9-8C39A28FF436}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46285,7 +46376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64191092-61FC-49E2-8B87-F024EB93CA2E}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF12496-C7D1-4B19-BBDD-1A29A3A5C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6220E-E916-4734-BC36-64A51C71C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="317">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>List of all Water Quality Components [-]</t>
   </si>
 </sst>
 </file>
@@ -45479,7 +45482,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -45562,8 +45565,8 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+        <f>_xlfn.CONCAT( "Table of Water Quality of Freshwater Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Freshwater Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDA91F-B454-47D0-9444-505E19200729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C1375-E45A-4AE5-9E30-56E0F57202F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="314">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1042,9 +1042,6 @@
   </si>
   <si>
     <t>max_allowable_pressure</t>
-  </si>
-  <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
   </si>
   <si>
     <t>Treatment Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
@@ -6758,7 +6755,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6869,7 +6866,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7359,7 +7356,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7434,7 +7431,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,7 +7581,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7679,7 +7676,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7730,7 +7727,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8647,7 +8644,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,7 +8716,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8769,7 +8766,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8810,7 +8807,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13148,7 +13145,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13161,8 +13158,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>302</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>296</v>
@@ -46313,7 +46311,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="131">
         <v>0.2</v>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C1375-E45A-4AE5-9E30-56E0F57202F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C9CC3-F8C6-4F51-9C0C-75EBA794995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="139" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="140" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="141" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="142" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="143" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="144" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="145" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="146" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="335">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1079,6 +1087,69 @@
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -1701,7 +1772,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2006,6 +2077,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3050,6 +3143,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1C72C-FA2D-415C-8B01-36FA63337895}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685D431B-18F2-4461-8FC6-A29F2FC5FE23}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EEC73E-D6E2-487A-A2DB-930BB8939764}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556972C4-5663-4A73-9E9A-FF3E8B0F5B25}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0983EAD-864E-4569-8B46-DC1E200F915E}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D3B522-462D-4325-824D-2B66A4ABA069}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="132" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="133"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="133"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="137">
+        <v>2</v>
+      </c>
+      <c r="C4" s="133"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="133"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="136" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="137">
+        <v>2</v>
+      </c>
+      <c r="C6" s="133"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="137">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="133"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="137">
+        <v>1</v>
+      </c>
+      <c r="C8" s="133"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="136" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="137">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="133"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="137">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="136" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="133"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="137">
+        <v>2</v>
+      </c>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="137">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="138" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
@@ -46430,4 +46803,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F529B0B-6059-4A0E-ABAB-10B47FB80033}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C155BC-F83A-4EEC-B7B3-A05CB25D767F}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E00B6-171A-4C7F-B650-B6F222ED2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C9CC3-F8C6-4F51-9C0C-75EBA794995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="139" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="140" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="141" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="142" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="143" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="144" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="145" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="146" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="335">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -942,9 +950,6 @@
     <t>PipelineDiameters</t>
   </si>
   <si>
-    <t>InjectionCapacities</t>
-  </si>
-  <si>
     <t>StorageCapacities</t>
   </si>
   <si>
@@ -1047,9 +1052,6 @@
     <t>max_allowable_pressure</t>
   </si>
   <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
-  </si>
-  <si>
     <t>Treatment Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
   <si>
@@ -1084,6 +1086,69 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1772,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2012,6 +2077,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3056,6 +3143,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1C72C-FA2D-415C-8B01-36FA63337895}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685D431B-18F2-4461-8FC6-A29F2FC5FE23}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EEC73E-D6E2-487A-A2DB-930BB8939764}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556972C4-5663-4A73-9E9A-FF3E8B0F5B25}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0983EAD-864E-4569-8B46-DC1E200F915E}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D3B522-462D-4325-824D-2B66A4ABA069}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="132" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="133"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="133"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="137">
+        <v>2</v>
+      </c>
+      <c r="C4" s="133"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="133"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="136" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="137">
+        <v>2</v>
+      </c>
+      <c r="C6" s="133"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="137">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="133"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="137">
+        <v>1</v>
+      </c>
+      <c r="C8" s="133"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="136" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="137">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="133"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="137">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="136" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="133"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="137">
+        <v>2</v>
+      </c>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="137">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="138" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
@@ -6761,7 +7128,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6872,7 +7239,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,7 +7538,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BA8" s="32" t="s">
         <v>76</v>
@@ -7179,22 +7546,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="D9" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>291</v>
-      </c>
       <c r="E9" s="70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="63"/>
@@ -7219,7 +7586,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -7227,13 +7594,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="63"/>
@@ -7261,7 +7628,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -7362,7 +7729,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7437,7 +7804,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,7 +7954,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7682,7 +8049,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7733,7 +8100,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,7 +9017,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,7 +9089,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,7 +9139,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,7 +9180,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,7 +9238,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13151,7 +13518,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13164,17 +13531,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>303</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -24042,7 +24410,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -31680,7 +32048,7 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -33661,7 +34029,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -37628,7 +37996,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37721,10 +38089,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37733,33 +38101,75 @@
     <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="48">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39">
         <v>7143</v>
       </c>
     </row>
@@ -37867,7 +38277,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>46</v>
@@ -38212,7 +38622,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>181</v>
@@ -38319,12 +38729,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="39">
         <v>300000</v>
@@ -38501,118 +38911,118 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD3" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH3" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN3" s="9"/>
       <c r="AO3" s="96"/>
       <c r="AP3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR3" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -38620,121 +39030,121 @@
         <v>90</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="9">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD4" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH4" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="96"/>
       <c r="AP4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -38742,121 +39152,121 @@
         <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="9">
         <v>1.2563</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD5" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH5" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="96"/>
       <c r="AP5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR5" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -38864,121 +39274,121 @@
         <v>92</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L6" s="9">
         <v>2.5074000000000001</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD6" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH6" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="96"/>
       <c r="AP6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ6" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR6" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -38986,121 +39396,121 @@
         <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K7" s="9">
         <v>5.9184867367820804</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M7" s="9">
         <v>1.4871000000000001</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD7" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH7" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="96"/>
       <c r="AP7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -39108,121 +39518,121 @@
         <v>94</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="9">
         <v>2.4758</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD8" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH8" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN8" s="9"/>
       <c r="AO8" s="96"/>
       <c r="AP8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR8" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -39230,121 +39640,121 @@
         <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P9" s="9">
         <v>3.0722259990726202</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD9" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH9" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="96"/>
       <c r="AP9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR9" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -39352,121 +39762,121 @@
         <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S10" s="9">
         <v>9.952</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD10" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH10" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN10" s="9"/>
       <c r="AO10" s="96"/>
       <c r="AP10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR10" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -39474,121 +39884,121 @@
         <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V11" s="9">
         <v>2.4247000000000001</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD11" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH11" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="96"/>
       <c r="AP11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR11" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -39596,121 +40006,121 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T12" s="9">
         <v>2.4037000000000002</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD12" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH12" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN12" s="9"/>
       <c r="AO12" s="96"/>
       <c r="AP12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR12" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -39718,121 +40128,121 @@
         <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z13" s="9">
         <v>3.8296999999999999</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH13" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN13" s="9"/>
       <c r="AO13" s="96"/>
       <c r="AP13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR13" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -39840,121 +40250,121 @@
         <v>100</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB14" s="9">
         <v>8.504999999999999</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD14" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH14" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN14" s="9"/>
       <c r="AO14" s="96"/>
       <c r="AP14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR14" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -39962,121 +40372,121 @@
         <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB15" s="9">
         <v>8.9529999999999994</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD15" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH15" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="96"/>
       <c r="AP15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR15" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -40084,121 +40494,121 @@
         <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB16" s="9">
         <v>1.2424999999999999</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD16" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH16" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="96"/>
       <c r="AP16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR16" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -40206,120 +40616,120 @@
         <v>119</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="93"/>
       <c r="E17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I17" s="93">
         <f>2*F4</f>
         <v>3.3694000000000002</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y17" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD17" s="108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH17" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI17" s="93"/>
       <c r="AJ17" s="93"/>
       <c r="AK17" s="93"/>
       <c r="AL17" s="93"/>
       <c r="AM17" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN17" s="105"/>
       <c r="AO17" s="107"/>
       <c r="AP17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ17" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR17" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -40327,119 +40737,119 @@
         <v>120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R18" s="9">
         <v>2.0697000000000001</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD18" s="109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH18" s="89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN18" s="32"/>
       <c r="AO18" s="89"/>
       <c r="AP18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -40447,119 +40857,119 @@
         <v>121</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R19" s="98"/>
       <c r="S19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD19" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH19" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI19" s="98"/>
       <c r="AJ19" s="98"/>
       <c r="AK19" s="98"/>
       <c r="AL19" s="98"/>
       <c r="AM19" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN19" s="98"/>
       <c r="AO19" s="99"/>
       <c r="AP19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ19" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR19" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -40567,103 +40977,103 @@
         <v>145</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="128">
         <v>4.0752409775985399</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD20" s="110">
         <v>4.1717000000000004</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH20" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
@@ -40684,100 +41094,100 @@
         <v>4.0752409775985399</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="9">
         <v>1.8142</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD21" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH21" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
@@ -40795,103 +41205,103 @@
         <v>147</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD22" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH22" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
@@ -40909,103 +41319,103 @@
         <v>148</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G23" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD23" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE23" s="9">
         <v>1.3163</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH23" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
@@ -41023,103 +41433,103 @@
         <v>149</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="128">
         <v>1.8142</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I24" s="9">
         <v>1.4431</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD24" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH24" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
@@ -41137,103 +41547,103 @@
         <v>150</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H25" s="9">
         <v>1.153</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD25" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH25" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
@@ -41251,25 +41661,25 @@
         <v>151</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" s="9">
         <v>1.153</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I26" s="9">
         <v>6.0780000000000003</v>
@@ -41278,76 +41688,76 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD26" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH26" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
@@ -41365,103 +41775,103 @@
         <v>152</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F27" s="9">
         <v>1.4431</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H27" s="9">
         <v>6.0780000000000003</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD27" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH27" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -41479,31 +41889,31 @@
         <v>153</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H28" s="9">
         <v>2.4449000000000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28" s="9">
         <v>3.2</v>
@@ -41512,70 +41922,70 @@
         <v>3.8851</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD28" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH28" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
@@ -41593,101 +42003,101 @@
         <v>154</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J29" s="9">
         <v>3.2</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD29" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH29" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI29" s="9">
         <v>2.5</v>
@@ -41707,103 +42117,103 @@
         <v>155</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J30" s="9">
         <v>3.8851</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N30" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD30" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH30" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
@@ -41821,101 +42231,101 @@
         <v>156</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O31" s="9">
         <v>5.3</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD31" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH31" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9">
@@ -41935,103 +42345,103 @@
         <v>157</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L32" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O32" s="9">
         <v>3.1087656701677102</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD32" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF32" s="9">
         <v>3.0184000000000002</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH32" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
@@ -42049,37 +42459,37 @@
         <v>158</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M33" s="9">
         <v>5.3</v>
@@ -42088,64 +42498,64 @@
         <v>3.1087656701677102</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC33" s="9">
         <v>1.3958999999999999</v>
       </c>
       <c r="AD33" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG33" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH33" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
@@ -42163,103 +42573,103 @@
         <v>159</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q34" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC34" s="9">
         <v>7.1440000000000001</v>
       </c>
       <c r="AD34" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH34" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
@@ -42277,103 +42687,103 @@
         <v>160</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P35" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R35" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD35" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH35" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -42391,103 +42801,103 @@
         <v>161</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q36" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD36" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG36" s="9">
         <v>6.4859913942891003</v>
       </c>
       <c r="AH36" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
@@ -42505,103 +42915,103 @@
         <v>162</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T37" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD37" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG37" s="9">
         <v>3.419</v>
       </c>
       <c r="AH37" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9"/>
@@ -42619,103 +43029,103 @@
         <v>163</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S38" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W38" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD38" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH38" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
@@ -42733,103 +43143,103 @@
         <v>164</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V39" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC39" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="AD39" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH39" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
@@ -42849,103 +43259,103 @@
         <v>165</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U40" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W40" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD40" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG40" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH40" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9"/>
@@ -42963,103 +43373,103 @@
         <v>166</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T41" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V41" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X41" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD41" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF41" s="9">
         <v>3.8807999999999998</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH41" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
@@ -43077,103 +43487,103 @@
         <v>167</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W42" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y42" s="9">
         <v>2.8607</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD42" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG42" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH42" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
@@ -43193,103 +43603,103 @@
         <v>168</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X43" s="9">
         <v>2.8607</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z43" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD43" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG43" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH43" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9"/>
@@ -43307,103 +43717,103 @@
         <v>169</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y44" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA44" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD44" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH44" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
@@ -43421,98 +43831,98 @@
         <v>170</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z45" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB45" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AC45" s="9"/>
       <c r="AD45" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH45" s="96">
         <v>3.2</v>
@@ -43533,103 +43943,103 @@
         <v>171</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA46" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD46" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG46" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH46" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
@@ -43647,43 +44057,43 @@
         <v>172</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O47" s="9">
         <v>1.3958999999999999</v>
@@ -43692,53 +44102,53 @@
         <v>7.1440000000000001</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U47" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD47" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH47" s="96"/>
       <c r="AI47" s="9"/>
@@ -43870,79 +44280,79 @@
       <c r="M50" s="98"/>
       <c r="N50" s="98"/>
       <c r="O50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD50" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH50" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI50" s="98"/>
       <c r="AJ50" s="98"/>
       <c r="AK50" s="98"/>
       <c r="AL50" s="98"/>
       <c r="AM50" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN50" s="98"/>
       <c r="AO50" s="99"/>
       <c r="AP50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ50" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR50" s="102">
         <v>6</v>
@@ -43953,110 +44363,110 @@
         <v>129</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD51" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG51" s="93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH51" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI51" s="93"/>
       <c r="AJ51" s="93"/>
       <c r="AK51" s="93"/>
       <c r="AL51" s="93"/>
       <c r="AM51" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN51" s="93"/>
       <c r="AO51" s="94"/>
@@ -44075,110 +44485,110 @@
         <v>130</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD52" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG52" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH52" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI52" s="98"/>
       <c r="AJ52" s="98"/>
       <c r="AK52" s="98"/>
       <c r="AL52" s="98"/>
       <c r="AM52" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN52" s="98"/>
       <c r="AO52" s="99"/>
@@ -44197,99 +44607,99 @@
         <v>136</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K53" s="9">
         <v>2.5</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD53" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG53" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH53" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
@@ -44767,7 +45177,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44936,7 +45346,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44947,7 +45357,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -45106,7 +45516,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45165,7 +45575,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45286,7 +45696,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45346,7 +45756,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -45354,12 +45764,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="37">
         <v>110</v>
@@ -45367,7 +45777,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="45">
         <v>0.03</v>
@@ -45375,24 +45785,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="37">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="39">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -45419,7 +45829,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45427,12 +45837,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="45">
         <v>0.08</v>
@@ -45440,7 +45850,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="39">
         <v>20</v>
@@ -45536,10 +45946,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45702,10 +46112,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45767,7 +46177,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -46269,12 +46679,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B3" s="131">
         <v>0.2</v>
@@ -46393,4 +46803,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F529B0B-6059-4A0E-ABAB-10B47FB80033}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C155BC-F83A-4EEC-B7B3-A05CB25D767F}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDC1E1-B11D-4AD8-B609-2F434084B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993B877C-C834-4F93-A7F7-EB3DE0E27544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="336">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1166,7 +1166,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,8 +1232,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,8 +1276,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1770,14 +1793,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2112,9 +2164,73 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
@@ -3150,23 +3266,73 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="145" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="148">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3176,20 +3342,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="60">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="60">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="60">
+        <v>0.53438082767110195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="60">
+        <v>0.53438082767110195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.69925391582478724</v>
       </c>
     </row>
   </sheetData>
@@ -3202,20 +3417,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="154">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="154">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="154">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="154">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="156">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3228,20 +3492,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="157" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="158" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="160">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="160">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="160">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="162">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -3254,20 +3567,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="157" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="158" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="160">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="160">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="160">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="162">
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>
@@ -3280,20 +3642,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="160">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="160">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="160">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="162">
+        <v>2.1800000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3306,20 +3717,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="160">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="160">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="160">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="162">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>
@@ -46806,7 +47266,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pareto/case_studies/strategic_permian_demo.xlsx
+++ b/pareto/case_studies/strategic_permian_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F05DCD-D32D-4253-91AC-2DC8B0993CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEFCE87-CFA4-4AF7-8C6B-C0F145B09904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2367,43 +2367,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>427181</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>599823</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54016</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC643757-8A56-DABF-6190-C867780BD2F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B97B5F8-DE22-7BDB-D1A5-7C96F69A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="427181" y="381001"/>
-          <a:ext cx="13045824" cy="5030106"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15601950" cy="6429375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4274,7 +4291,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4868,7 @@
   </sheetPr>
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13903,8 +13920,8 @@
   </sheetPr>
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
